--- a/sfe316_gcs_analysis/0_SFE_316_RiverBuilder_metrics.xlsx
+++ b/sfe316_gcs_analysis/0_SFE_316_RiverBuilder_metrics.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\usu-RiverBuilder\site316_gcs_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\usu-RiverBuilder\sfe316_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BA3B9-F7CE-4E30-B10D-D4087DE6F9A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F6380-58DC-4DEB-BCEB-9D53EA13D0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1740" yWindow="630" windowWidth="24435" windowHeight="14655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SFE_316_classmetrics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="155">
   <si>
     <t>SFE Site 316 River Builder Input data</t>
   </si>
@@ -482,6 +482,12 @@
   <si>
     <t>From trend analysis</t>
   </si>
+  <si>
+    <t>WSE_bf-WSE_base</t>
+  </si>
+  <si>
+    <t>Check w/ xlsx (parameter)</t>
+  </si>
 </sst>
 </file>
 
@@ -714,7 +720,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -824,6 +830,8 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9868,7 +9876,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>308742</xdr:colOff>
+      <xdr:colOff>308741</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>99658</xdr:rowOff>
     </xdr:to>
@@ -11842,8 +11850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Y28" sqref="Y28"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11858,16 +11866,17 @@
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="10.375" customWidth="1"/>
-    <col min="12" max="12" width="10.125" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="14" width="10.25" customWidth="1"/>
     <col min="15" max="21" width="7.625" customWidth="1"/>
     <col min="22" max="22" width="5.5" customWidth="1"/>
     <col min="23" max="23" width="9.75" customWidth="1"/>
-    <col min="24" max="24" width="20" customWidth="1"/>
+    <col min="24" max="24" width="22" customWidth="1"/>
     <col min="25" max="25" width="20.375" customWidth="1"/>
     <col min="26" max="26" width="7.875" customWidth="1"/>
     <col min="27" max="27" width="3.125" customWidth="1"/>
     <col min="28" max="28" width="5.75" customWidth="1"/>
+    <col min="33" max="33" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -11924,7 +11933,7 @@
         <v>87</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>61</v>
@@ -11982,8 +11991,8 @@
         <v>1000.86751371</v>
       </c>
       <c r="L3" s="56">
-        <f t="shared" ref="L3:L34" si="1">K3-D3</f>
-        <v>1.1878262100000256</v>
+        <f>K3-G3</f>
+        <v>1.0184951790000696</v>
       </c>
       <c r="M3" s="1">
         <v>18.249503516160001</v>
@@ -11995,7 +12004,7 @@
       <c r="W3" t="s">
         <v>144</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="70">
         <v>180.46110719999999</v>
       </c>
       <c r="AA3" t="s">
@@ -12010,25 +12019,25 @@
         <v>2</v>
       </c>
       <c r="C4" s="5">
-        <f t="shared" ref="C4:C67" si="2">$B$94-B4</f>
+        <f t="shared" ref="C4:C67" si="1">$B$94-B4</f>
         <v>180</v>
       </c>
       <c r="D4" s="56">
         <v>999.47308349599996</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E67" si="3">-0.0226634662*B4+999.6815724256</f>
+        <f t="shared" ref="E4:E67" si="2">-0.0226634662*B4+999.6815724256</f>
         <v>999.63624549320002</v>
       </c>
       <c r="F4" s="2">
-        <f t="shared" ref="F4:F67" si="4">D4-E4</f>
+        <f t="shared" ref="F4:F67" si="3">D4-E4</f>
         <v>-0.16316199720006352</v>
       </c>
       <c r="G4" s="55">
         <v>999.70655216099999</v>
       </c>
       <c r="H4" s="55">
-        <f t="shared" ref="H4:H67" si="5">G4-D4</f>
+        <f t="shared" ref="H4:H67" si="4">G4-D4</f>
         <v>0.23346866500003216</v>
       </c>
       <c r="I4" s="1">
@@ -12042,8 +12051,8 @@
         <v>1000.70083973</v>
       </c>
       <c r="L4" s="56">
-        <f t="shared" si="1"/>
-        <v>1.2277562340000259</v>
+        <f t="shared" ref="L4:L67" si="5">K4-G4</f>
+        <v>0.99428756899999371</v>
       </c>
       <c r="M4" s="1">
         <v>18.144316914240001</v>
@@ -12061,25 +12070,25 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>178</v>
       </c>
       <c r="D5" s="56">
         <v>999.51696777300003</v>
       </c>
       <c r="E5" s="1">
+        <f t="shared" si="2"/>
+        <v>999.59091856080011</v>
+      </c>
+      <c r="F5" s="2">
         <f t="shared" si="3"/>
-        <v>999.59091856080011</v>
-      </c>
-      <c r="F5" s="2">
-        <f t="shared" si="4"/>
         <v>-7.3950787800072249E-2</v>
       </c>
       <c r="G5" s="55">
         <v>999.74011581000002</v>
       </c>
       <c r="H5" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.2231480369999872</v>
       </c>
       <c r="I5" s="1">
@@ -12093,8 +12102,8 @@
         <v>1000.69981751</v>
       </c>
       <c r="L5" s="56">
-        <f t="shared" si="1"/>
-        <v>1.1828497369999695</v>
+        <f t="shared" si="5"/>
+        <v>0.95970169999998234</v>
       </c>
       <c r="M5" s="1">
         <v>17.254728182880001</v>
@@ -12126,25 +12135,25 @@
         <v>6</v>
       </c>
       <c r="C6" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>176</v>
       </c>
       <c r="D6" s="56">
         <v>999.40985107400002</v>
       </c>
       <c r="E6" s="1">
+        <f t="shared" si="2"/>
+        <v>999.54559162840008</v>
+      </c>
+      <c r="F6" s="2">
         <f t="shared" si="3"/>
-        <v>999.54559162840008</v>
-      </c>
-      <c r="F6" s="2">
-        <f t="shared" si="4"/>
         <v>-0.1357405544000585</v>
       </c>
       <c r="G6" s="55">
         <v>999.62598439500005</v>
       </c>
       <c r="H6" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.21613332100002935</v>
       </c>
       <c r="I6" s="1">
@@ -12158,8 +12167,8 @@
         <v>1000.51432883</v>
       </c>
       <c r="L6" s="56">
-        <f t="shared" si="1"/>
-        <v>1.1044777559999375</v>
+        <f t="shared" si="5"/>
+        <v>0.88834443499990812</v>
       </c>
       <c r="M6" s="1">
         <v>17.6403</v>
@@ -12191,25 +12200,25 @@
         <v>8</v>
       </c>
       <c r="C7" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>174</v>
       </c>
       <c r="D7" s="56">
         <v>999.59631347699997</v>
       </c>
       <c r="E7" s="1">
+        <f t="shared" si="2"/>
+        <v>999.50026469600004</v>
+      </c>
+      <c r="F7" s="2">
         <f t="shared" si="3"/>
-        <v>999.50026469600004</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="4"/>
         <v>9.6048780999922201E-2</v>
       </c>
       <c r="G7" s="55">
         <v>999.661891631</v>
       </c>
       <c r="H7" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.5578154000036193E-2</v>
       </c>
       <c r="I7" s="1">
@@ -12223,8 +12232,8 @@
         <v>1000.44880495</v>
       </c>
       <c r="L7" s="56">
-        <f t="shared" si="1"/>
-        <v>0.8524914729999864</v>
+        <f t="shared" si="5"/>
+        <v>0.78691331899995021</v>
       </c>
       <c r="M7" s="1">
         <v>17.136313321919999</v>
@@ -12242,25 +12251,25 @@
         <v>10</v>
       </c>
       <c r="C8" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>172</v>
       </c>
       <c r="D8" s="56">
         <v>999.38470458999996</v>
       </c>
       <c r="E8" s="1">
+        <f t="shared" si="2"/>
+        <v>999.45493776360001</v>
+      </c>
+      <c r="F8" s="2">
         <f t="shared" si="3"/>
-        <v>999.45493776360001</v>
-      </c>
-      <c r="F8" s="2">
-        <f t="shared" si="4"/>
         <v>-7.0233173600058763E-2</v>
       </c>
       <c r="G8" s="55">
         <v>999.50723971100001</v>
       </c>
       <c r="H8" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12253512100005537</v>
       </c>
       <c r="I8" s="1">
@@ -12274,8 +12283,8 @@
         <v>1000.28626774</v>
       </c>
       <c r="L8" s="56">
-        <f t="shared" si="1"/>
-        <v>0.90156315000001541</v>
+        <f t="shared" si="5"/>
+        <v>0.77902802899996004</v>
       </c>
       <c r="M8" s="1">
         <v>17.6403</v>
@@ -12303,25 +12312,25 @@
         <v>12</v>
       </c>
       <c r="C9" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>170</v>
       </c>
       <c r="D9" s="56">
         <v>999.32366943399995</v>
       </c>
       <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>999.4096108312001</v>
+      </c>
+      <c r="F9" s="2">
         <f t="shared" si="3"/>
-        <v>999.4096108312001</v>
-      </c>
-      <c r="F9" s="2">
-        <f t="shared" si="4"/>
         <v>-8.594139720014482E-2</v>
       </c>
       <c r="G9" s="55">
         <v>999.45852196600003</v>
       </c>
       <c r="H9" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.13485253200008174</v>
       </c>
       <c r="I9" s="1">
@@ -12335,8 +12344,8 @@
         <v>1000.26300364</v>
       </c>
       <c r="L9" s="56">
-        <f t="shared" si="1"/>
-        <v>0.93933420600001227</v>
+        <f t="shared" si="5"/>
+        <v>0.80448167399993054</v>
       </c>
       <c r="M9" s="1">
         <v>18.144316914240001</v>
@@ -12361,25 +12370,25 @@
         <v>14</v>
       </c>
       <c r="C10" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>168</v>
       </c>
       <c r="D10" s="56">
         <v>999.31988525400004</v>
       </c>
       <c r="E10" s="1">
+        <f t="shared" si="2"/>
+        <v>999.36428389880007</v>
+      </c>
+      <c r="F10" s="2">
         <f t="shared" si="3"/>
-        <v>999.36428389880007</v>
-      </c>
-      <c r="F10" s="2">
-        <f t="shared" si="4"/>
         <v>-4.4398644800025977E-2</v>
       </c>
       <c r="G10" s="55">
         <v>999.46886736700003</v>
       </c>
       <c r="H10" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.1489821129999882</v>
       </c>
       <c r="I10" s="1">
@@ -12393,8 +12402,8 @@
         <v>1000.29405102</v>
       </c>
       <c r="L10" s="56">
-        <f t="shared" si="1"/>
-        <v>0.97416576599994187</v>
+        <f t="shared" si="5"/>
+        <v>0.82518365299995367</v>
       </c>
       <c r="M10" s="1">
         <v>21.672377127600001</v>
@@ -12419,25 +12428,25 @@
         <v>16</v>
       </c>
       <c r="C11" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>166</v>
       </c>
       <c r="D11" s="56">
         <v>999.30316162099996</v>
       </c>
       <c r="E11" s="1">
+        <f t="shared" si="2"/>
+        <v>999.31895696640004</v>
+      </c>
+      <c r="F11" s="2">
         <f t="shared" si="3"/>
-        <v>999.31895696640004</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="4"/>
         <v>-1.5795345400078986E-2</v>
       </c>
       <c r="G11" s="55">
         <v>999.50891920699996</v>
       </c>
       <c r="H11" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.20575758600000427</v>
       </c>
       <c r="I11" s="1">
@@ -12451,8 +12460,8 @@
         <v>1000.34743826</v>
       </c>
       <c r="L11" s="56">
-        <f t="shared" si="1"/>
-        <v>1.0442766390000315</v>
+        <f t="shared" si="5"/>
+        <v>0.83851905300002727</v>
       </c>
       <c r="M11" s="1">
         <v>20.664373565759998</v>
@@ -12470,25 +12479,25 @@
         <v>18</v>
       </c>
       <c r="C12" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>164</v>
       </c>
       <c r="D12" s="56">
         <v>999.23358154300001</v>
       </c>
       <c r="E12" s="1">
+        <f t="shared" si="2"/>
+        <v>999.27363003400001</v>
+      </c>
+      <c r="F12" s="2">
         <f t="shared" si="3"/>
-        <v>999.27363003400001</v>
-      </c>
-      <c r="F12" s="2">
-        <f t="shared" si="4"/>
         <v>-4.0048490999993192E-2</v>
       </c>
       <c r="G12" s="55">
         <v>999.437511255</v>
       </c>
       <c r="H12" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.2039297119999901</v>
       </c>
       <c r="I12" s="1">
@@ -12502,8 +12511,8 @@
         <v>1000.25199882</v>
       </c>
       <c r="L12" s="56">
-        <f t="shared" si="1"/>
-        <v>1.0184172770000259</v>
+        <f t="shared" si="5"/>
+        <v>0.81448756500003583</v>
       </c>
       <c r="M12" s="1">
         <v>21.168359055120003</v>
@@ -12531,25 +12540,25 @@
         <v>20</v>
       </c>
       <c r="C13" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
       <c r="D13" s="56">
         <v>999.25720214800003</v>
       </c>
       <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>999.22830310160009</v>
+      </c>
+      <c r="F13" s="2">
         <f t="shared" si="3"/>
-        <v>999.22830310160009</v>
-      </c>
-      <c r="F13" s="2">
-        <f t="shared" si="4"/>
         <v>2.8899046399942563E-2</v>
       </c>
       <c r="G13" s="55">
         <v>999.39089948499998</v>
       </c>
       <c r="H13" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.13369733699994413</v>
       </c>
       <c r="I13" s="1">
@@ -12563,8 +12572,8 @@
         <v>1000.19841761</v>
       </c>
       <c r="L13" s="56">
-        <f t="shared" si="1"/>
-        <v>0.94121546199994555</v>
+        <f t="shared" si="5"/>
+        <v>0.80751812500000142</v>
       </c>
       <c r="M13" s="1">
         <v>22.680410956079999</v>
@@ -12582,25 +12591,25 @@
         <v>22</v>
       </c>
       <c r="C14" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
       <c r="D14" s="56">
         <v>999.26373291000004</v>
       </c>
       <c r="E14" s="1">
+        <f t="shared" si="2"/>
+        <v>999.18297616920006</v>
+      </c>
+      <c r="F14" s="2">
         <f t="shared" si="3"/>
-        <v>999.18297616920006</v>
-      </c>
-      <c r="F14" s="2">
-        <f t="shared" si="4"/>
         <v>8.0756740799984073E-2</v>
       </c>
       <c r="G14" s="55">
         <v>999.38799468100001</v>
       </c>
       <c r="H14" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12426177099996494</v>
       </c>
       <c r="I14" s="1">
@@ -12614,8 +12623,8 @@
         <v>1000.20045827</v>
       </c>
       <c r="L14" s="56">
-        <f t="shared" si="1"/>
-        <v>0.93672535999996853</v>
+        <f t="shared" si="5"/>
+        <v>0.81246358900000359</v>
       </c>
       <c r="M14" s="1">
         <v>22.680410956079999</v>
@@ -12643,25 +12652,25 @@
         <v>24</v>
       </c>
       <c r="C15" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>158</v>
       </c>
       <c r="D15" s="56">
         <v>999.20996093799999</v>
       </c>
       <c r="E15" s="1">
+        <f t="shared" si="2"/>
+        <v>999.13764923680003</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" si="3"/>
-        <v>999.13764923680003</v>
-      </c>
-      <c r="F15" s="2">
-        <f t="shared" si="4"/>
         <v>7.2311701199964773E-2</v>
       </c>
       <c r="G15" s="55">
         <v>999.345348844</v>
       </c>
       <c r="H15" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.13538790600000539</v>
       </c>
       <c r="I15" s="1">
@@ -12675,8 +12684,8 @@
         <v>1000.13587333</v>
       </c>
       <c r="L15" s="56">
-        <f t="shared" si="1"/>
-        <v>0.92591239199998654</v>
+        <f t="shared" si="5"/>
+        <v>0.79052448599998115</v>
       </c>
       <c r="M15" s="1">
         <v>22.176395200080002</v>
@@ -12697,25 +12706,25 @@
         <v>26</v>
       </c>
       <c r="C16" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>156</v>
       </c>
       <c r="D16" s="56">
         <v>999.104003906</v>
       </c>
       <c r="E16" s="1">
+        <f t="shared" si="2"/>
+        <v>999.0923223044</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" si="3"/>
-        <v>999.0923223044</v>
-      </c>
-      <c r="F16" s="2">
-        <f t="shared" si="4"/>
         <v>1.1681601600002978E-2</v>
       </c>
       <c r="G16" s="55">
         <v>999.25295507400006</v>
       </c>
       <c r="H16" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14895116800005326</v>
       </c>
       <c r="I16" s="1">
@@ -12729,8 +12738,8 @@
         <v>1000.01634709</v>
       </c>
       <c r="L16" s="56">
-        <f t="shared" si="1"/>
-        <v>0.91234318399995118</v>
+        <f t="shared" si="5"/>
+        <v>0.76339201599989792</v>
       </c>
       <c r="M16" s="1">
         <v>22.680410956079999</v>
@@ -12762,25 +12771,25 @@
         <v>28</v>
       </c>
       <c r="C17" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>154</v>
       </c>
       <c r="D17" s="56">
         <v>999.05548095699999</v>
       </c>
       <c r="E17" s="1">
+        <f t="shared" si="2"/>
+        <v>999.04699537200008</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" si="3"/>
-        <v>999.04699537200008</v>
-      </c>
-      <c r="F17" s="2">
-        <f t="shared" si="4"/>
         <v>8.4855849999030397E-3</v>
       </c>
       <c r="G17" s="55">
         <v>999.17506207999998</v>
       </c>
       <c r="H17" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11958112299998902</v>
       </c>
       <c r="I17" s="1">
@@ -12794,8 +12803,8 @@
         <v>999.99489608600004</v>
       </c>
       <c r="L17" s="56">
-        <f t="shared" si="1"/>
-        <v>0.93941512900005364</v>
+        <f t="shared" si="5"/>
+        <v>0.81983400600006462</v>
       </c>
       <c r="M17" s="1">
         <v>21.672377127600001</v>
@@ -12810,9 +12819,9 @@
       <c r="Y17" t="s">
         <v>89</v>
       </c>
-      <c r="Z17" s="61">
+      <c r="Z17" s="69">
         <f>AVERAGE(L3:L94)</f>
-        <v>1.142573051543478</v>
+        <v>0.95865968003259827</v>
       </c>
       <c r="AA17" t="s">
         <v>83</v>
@@ -12826,25 +12835,25 @@
         <v>30</v>
       </c>
       <c r="C18" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>152</v>
       </c>
       <c r="D18" s="56">
         <v>998.995605469</v>
       </c>
       <c r="E18" s="1">
+        <f t="shared" si="2"/>
+        <v>999.00166843960005</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" si="3"/>
-        <v>999.00166843960005</v>
-      </c>
-      <c r="F18" s="2">
-        <f t="shared" si="4"/>
         <v>-6.0629706000554506E-3</v>
       </c>
       <c r="G18" s="55">
         <v>999.07489294100003</v>
       </c>
       <c r="H18" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.9287472000032722E-2</v>
       </c>
       <c r="I18" s="1">
@@ -12858,8 +12867,8 @@
         <v>999.98372290299994</v>
       </c>
       <c r="L18" s="56">
-        <f t="shared" si="1"/>
-        <v>0.98811743399994612</v>
+        <f t="shared" si="5"/>
+        <v>0.90882996199991339</v>
       </c>
       <c r="M18" s="1">
         <v>20.160355493280001</v>
@@ -12886,25 +12895,25 @@
         <v>32</v>
       </c>
       <c r="C19" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="D19" s="56">
         <v>998.87902831999997</v>
       </c>
       <c r="E19" s="1">
+        <f t="shared" si="2"/>
+        <v>998.95634150720002</v>
+      </c>
+      <c r="F19" s="2">
         <f t="shared" si="3"/>
-        <v>998.95634150720002</v>
-      </c>
-      <c r="F19" s="2">
-        <f t="shared" si="4"/>
         <v>-7.7313187200047651E-2</v>
       </c>
       <c r="G19" s="55">
         <v>999.07348169900001</v>
       </c>
       <c r="H19" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.19445337900003778</v>
       </c>
       <c r="I19" s="1">
@@ -12918,8 +12927,8 @@
         <v>1000.00174654</v>
       </c>
       <c r="L19" s="56">
-        <f t="shared" si="1"/>
-        <v>1.1227182200000243</v>
+        <f t="shared" si="5"/>
+        <v>0.92826484099998652</v>
       </c>
       <c r="M19" s="1">
         <v>23.201346617280002</v>
@@ -12937,25 +12946,25 @@
         <v>34</v>
       </c>
       <c r="C20" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>148</v>
       </c>
       <c r="D20" s="56">
         <v>998.85784912099996</v>
       </c>
       <c r="E20" s="1">
+        <f t="shared" si="2"/>
+        <v>998.91101457480011</v>
+      </c>
+      <c r="F20" s="2">
         <f t="shared" si="3"/>
-        <v>998.91101457480011</v>
-      </c>
-      <c r="F20" s="2">
-        <f t="shared" si="4"/>
         <v>-5.3165453800147588E-2</v>
       </c>
       <c r="G20" s="55">
         <v>999.00029653599995</v>
       </c>
       <c r="H20" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.14244741499999236</v>
       </c>
       <c r="I20" s="1">
@@ -12969,8 +12978,8 @@
         <v>999.90057140299996</v>
       </c>
       <c r="L20" s="56">
-        <f t="shared" si="1"/>
-        <v>1.0427222819999997</v>
+        <f t="shared" si="5"/>
+        <v>0.90027486700000736</v>
       </c>
       <c r="M20" s="1">
         <v>22.661788834320003</v>
@@ -13002,25 +13011,25 @@
         <v>36</v>
       </c>
       <c r="C21" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>146</v>
       </c>
       <c r="D21" s="56">
         <v>998.88842773399995</v>
       </c>
       <c r="E21" s="1">
+        <f t="shared" si="2"/>
+        <v>998.86568764240008</v>
+      </c>
+      <c r="F21" s="2">
         <f t="shared" si="3"/>
-        <v>998.86568764240008</v>
-      </c>
-      <c r="F21" s="2">
-        <f t="shared" si="4"/>
         <v>2.2740091599871448E-2</v>
       </c>
       <c r="G21" s="55">
         <v>998.97553768600005</v>
       </c>
       <c r="H21" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.7109952000105295E-2</v>
       </c>
       <c r="I21" s="1">
@@ -13034,8 +13043,8 @@
         <v>999.84218712100005</v>
       </c>
       <c r="L21" s="56">
-        <f t="shared" si="1"/>
-        <v>0.95375938700010465</v>
+        <f t="shared" si="5"/>
+        <v>0.86664943499999936</v>
       </c>
       <c r="M21" s="1">
         <v>22.70763023616</v>
@@ -13065,25 +13074,25 @@
         <v>38</v>
       </c>
       <c r="C22" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>144</v>
       </c>
       <c r="D22" s="56">
         <v>998.74987793000003</v>
       </c>
       <c r="E22" s="1">
+        <f t="shared" si="2"/>
+        <v>998.82036071000005</v>
+      </c>
+      <c r="F22" s="2">
         <f t="shared" si="3"/>
-        <v>998.82036071000005</v>
-      </c>
-      <c r="F22" s="2">
-        <f t="shared" si="4"/>
         <v>-7.0482780000020284E-2</v>
       </c>
       <c r="G22" s="55">
         <v>998.80885842500004</v>
       </c>
       <c r="H22" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.8980495000014344E-2</v>
       </c>
       <c r="I22" s="1">
@@ -13097,8 +13106,8 @@
         <v>999.74709257899997</v>
       </c>
       <c r="L22" s="56">
-        <f t="shared" si="1"/>
-        <v>0.99721464899994317</v>
+        <f t="shared" si="5"/>
+        <v>0.93823415399992882</v>
       </c>
       <c r="M22" s="1">
         <v>23.201346617280002</v>
@@ -13116,25 +13125,25 @@
         <v>40</v>
       </c>
       <c r="C23" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>142</v>
       </c>
       <c r="D23" s="56">
         <v>998.49139404300001</v>
       </c>
       <c r="E23" s="1">
+        <f t="shared" si="2"/>
+        <v>998.77503377760002</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" si="3"/>
-        <v>998.77503377760002</v>
-      </c>
-      <c r="F23" s="2">
-        <f t="shared" si="4"/>
         <v>-0.28363973460000125</v>
       </c>
       <c r="G23" s="55">
         <v>998.79163769700006</v>
       </c>
       <c r="H23" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.30024365400004172</v>
       </c>
       <c r="I23" s="1">
@@ -13148,8 +13157,8 @@
         <v>999.85673581599997</v>
       </c>
       <c r="L23" s="56">
-        <f t="shared" si="1"/>
-        <v>1.3653417729999546</v>
+        <f t="shared" si="5"/>
+        <v>1.0650981189999129</v>
       </c>
       <c r="M23" s="1">
         <v>24.820047794400004</v>
@@ -13180,25 +13189,25 @@
         <v>42</v>
       </c>
       <c r="C24" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>140</v>
       </c>
       <c r="D24" s="56">
         <v>998.32586669900002</v>
       </c>
       <c r="E24" s="1">
+        <f t="shared" si="2"/>
+        <v>998.7297068452001</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" si="3"/>
-        <v>998.7297068452001</v>
-      </c>
-      <c r="F24" s="2">
-        <f t="shared" si="4"/>
         <v>-0.40384014620008202</v>
       </c>
       <c r="G24" s="55">
         <v>998.79170431499995</v>
       </c>
       <c r="H24" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.46583761599993068</v>
       </c>
       <c r="I24" s="1">
@@ -13212,8 +13221,8 @@
         <v>999.87612036600001</v>
       </c>
       <c r="L24" s="56">
-        <f t="shared" si="1"/>
-        <v>1.5502536669999927</v>
+        <f t="shared" si="5"/>
+        <v>1.084416051000062</v>
       </c>
       <c r="M24" s="1">
         <v>24.820047794400004</v>
@@ -13243,25 +13252,25 @@
         <v>44</v>
       </c>
       <c r="C25" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>138</v>
       </c>
       <c r="D25" s="56">
         <v>998.27697753899997</v>
       </c>
       <c r="E25" s="1">
+        <f t="shared" si="2"/>
+        <v>998.68437991280007</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" si="3"/>
-        <v>998.68437991280007</v>
-      </c>
-      <c r="F25" s="2">
-        <f t="shared" si="4"/>
         <v>-0.40740237380009603</v>
       </c>
       <c r="G25" s="55">
         <v>998.73502935800002</v>
       </c>
       <c r="H25" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.45805181900004754</v>
       </c>
       <c r="I25" s="1">
@@ -13275,8 +13284,8 @@
         <v>999.798826706</v>
       </c>
       <c r="L25" s="56">
-        <f t="shared" si="1"/>
-        <v>1.5218491670000276</v>
+        <f t="shared" si="5"/>
+        <v>1.06379734799998</v>
       </c>
       <c r="M25" s="1">
         <v>25.20001065144</v>
@@ -13294,25 +13303,25 @@
         <v>46</v>
       </c>
       <c r="C26" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="D26" s="56">
         <v>998.66717529300001</v>
       </c>
       <c r="E26" s="1">
+        <f t="shared" si="2"/>
+        <v>998.63905298040004</v>
+      </c>
+      <c r="F26" s="2">
         <f t="shared" si="3"/>
-        <v>998.63905298040004</v>
-      </c>
-      <c r="F26" s="2">
-        <f t="shared" si="4"/>
         <v>2.8122312599975885E-2</v>
       </c>
       <c r="G26" s="55">
         <v>998.96281560900002</v>
       </c>
       <c r="H26" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.29564031600000362</v>
       </c>
       <c r="I26" s="1">
@@ -13326,8 +13335,8 @@
         <v>999.95718728899999</v>
       </c>
       <c r="L26" s="56">
-        <f t="shared" si="1"/>
-        <v>1.2900119959999756</v>
+        <f t="shared" si="5"/>
+        <v>0.994371679999972</v>
       </c>
       <c r="M26" s="1">
         <v>24.820047794400004</v>
@@ -13354,25 +13363,25 @@
         <v>48</v>
       </c>
       <c r="C27" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="D27" s="56">
         <v>998.31860351600005</v>
       </c>
       <c r="E27" s="1">
+        <f t="shared" si="2"/>
+        <v>998.59372604800001</v>
+      </c>
+      <c r="F27" s="2">
         <f t="shared" si="3"/>
-        <v>998.59372604800001</v>
-      </c>
-      <c r="F27" s="2">
-        <f t="shared" si="4"/>
         <v>-0.27512253199995484</v>
       </c>
       <c r="G27" s="55">
         <v>998.71739845000002</v>
       </c>
       <c r="H27" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.39879493399996591</v>
       </c>
       <c r="I27" s="1">
@@ -13386,8 +13395,8 @@
         <v>999.70880731099999</v>
       </c>
       <c r="L27" s="56">
-        <f t="shared" si="1"/>
-        <v>1.390203794999934</v>
+        <f t="shared" si="5"/>
+        <v>0.99140886099996806</v>
       </c>
       <c r="M27" s="1">
         <v>23.740902053280003</v>
@@ -13395,6 +13404,9 @@
       <c r="N27" s="1">
         <f t="shared" si="6"/>
         <v>11.870451026640001</v>
+      </c>
+      <c r="X27" t="s">
+        <v>154</v>
       </c>
       <c r="Y27" t="s">
         <v>152</v>
@@ -13414,25 +13426,25 @@
         <v>50</v>
       </c>
       <c r="C28" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>132</v>
       </c>
       <c r="D28" s="56">
         <v>998.50128173799999</v>
       </c>
       <c r="E28" s="1">
+        <f t="shared" si="2"/>
+        <v>998.54839911560009</v>
+      </c>
+      <c r="F28" s="2">
         <f t="shared" si="3"/>
-        <v>998.54839911560009</v>
-      </c>
-      <c r="F28" s="2">
-        <f t="shared" si="4"/>
         <v>-4.7117377600102373E-2</v>
       </c>
       <c r="G28" s="55">
         <v>998.80027655000004</v>
       </c>
       <c r="H28" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.29899481200004629</v>
       </c>
       <c r="I28" s="1">
@@ -13446,8 +13458,8 @@
         <v>999.770760451</v>
       </c>
       <c r="L28" s="56">
-        <f t="shared" si="1"/>
-        <v>1.2694787130000122</v>
+        <f t="shared" si="5"/>
+        <v>0.97048390099996595</v>
       </c>
       <c r="M28" s="1">
         <v>24.28049004192</v>
@@ -13465,25 +13477,25 @@
         <v>52</v>
       </c>
       <c r="C29" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>130</v>
       </c>
       <c r="D29" s="56">
         <v>998.51385498000002</v>
       </c>
       <c r="E29" s="1">
+        <f t="shared" si="2"/>
+        <v>998.50307218320006</v>
+      </c>
+      <c r="F29" s="2">
         <f t="shared" si="3"/>
-        <v>998.50307218320006</v>
-      </c>
-      <c r="F29" s="2">
-        <f t="shared" si="4"/>
         <v>1.0782796799958305E-2</v>
       </c>
       <c r="G29" s="55">
         <v>998.76681613799997</v>
       </c>
       <c r="H29" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.25296115799994823</v>
       </c>
       <c r="I29" s="1">
@@ -13497,8 +13509,8 @@
         <v>999.731625775</v>
       </c>
       <c r="L29" s="56">
-        <f t="shared" si="1"/>
-        <v>1.2177707949999785</v>
+        <f t="shared" si="5"/>
+        <v>0.96480963700003031</v>
       </c>
       <c r="M29" s="1">
         <v>24.883383466560002</v>
@@ -13520,25 +13532,25 @@
         <v>54</v>
       </c>
       <c r="C30" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>128</v>
       </c>
       <c r="D30" s="56">
         <v>998.65692138700001</v>
       </c>
       <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>998.45774525080003</v>
+      </c>
+      <c r="F30" s="2">
         <f t="shared" si="3"/>
-        <v>998.45774525080003</v>
-      </c>
-      <c r="F30" s="2">
-        <f t="shared" si="4"/>
         <v>0.19917613619998065</v>
       </c>
       <c r="G30" s="55">
         <v>998.811982769</v>
       </c>
       <c r="H30" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15506138199998531</v>
       </c>
       <c r="I30" s="1">
@@ -13552,8 +13564,8 @@
         <v>999.74476553600005</v>
       </c>
       <c r="L30" s="56">
-        <f t="shared" si="1"/>
-        <v>1.0878441490000341</v>
+        <f t="shared" si="5"/>
+        <v>0.93278276700004881</v>
       </c>
       <c r="M30" s="1">
         <v>24.013027279919999</v>
@@ -13581,25 +13593,25 @@
         <v>56</v>
       </c>
       <c r="C31" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>126</v>
       </c>
       <c r="D31" s="56">
         <v>998.61602783199999</v>
       </c>
       <c r="E31" s="1">
+        <f t="shared" si="2"/>
+        <v>998.4124183184</v>
+      </c>
+      <c r="F31" s="2">
         <f t="shared" si="3"/>
-        <v>998.4124183184</v>
-      </c>
-      <c r="F31" s="2">
-        <f t="shared" si="4"/>
         <v>0.2036095135999858</v>
       </c>
       <c r="G31" s="55">
         <v>998.78522649900003</v>
       </c>
       <c r="H31" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.16919866700004604</v>
       </c>
       <c r="I31" s="1">
@@ -13613,8 +13625,8 @@
         <v>999.67834005099996</v>
       </c>
       <c r="L31" s="56">
-        <f t="shared" si="1"/>
-        <v>1.0623122189999776</v>
+        <f t="shared" si="5"/>
+        <v>0.89311355199993159</v>
       </c>
       <c r="M31" s="1">
         <v>24.28049004192</v>
@@ -13641,25 +13653,25 @@
         <v>58</v>
       </c>
       <c r="C32" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>124</v>
       </c>
       <c r="D32" s="56">
         <v>998.60968017599998</v>
       </c>
       <c r="E32" s="1">
+        <f t="shared" si="2"/>
+        <v>998.36709138600008</v>
+      </c>
+      <c r="F32" s="2">
         <f t="shared" si="3"/>
-        <v>998.36709138600008</v>
-      </c>
-      <c r="F32" s="2">
-        <f t="shared" si="4"/>
         <v>0.24258878999989975</v>
       </c>
       <c r="G32" s="55">
         <v>998.73215684800005</v>
       </c>
       <c r="H32" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12247667200006163</v>
       </c>
       <c r="I32" s="1">
@@ -13673,8 +13685,8 @@
         <v>999.60189501800005</v>
       </c>
       <c r="L32" s="56">
-        <f t="shared" si="1"/>
-        <v>0.99221484200006671</v>
+        <f t="shared" si="5"/>
+        <v>0.86973817000000508</v>
       </c>
       <c r="M32" s="1">
         <v>23.897873870399998</v>
@@ -13701,25 +13713,25 @@
         <v>60</v>
       </c>
       <c r="C33" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>122</v>
       </c>
       <c r="D33" s="56">
         <v>998.46008300799997</v>
       </c>
       <c r="E33" s="1">
+        <f t="shared" si="2"/>
+        <v>998.32176445360005</v>
+      </c>
+      <c r="F33" s="2">
         <f t="shared" si="3"/>
-        <v>998.32176445360005</v>
-      </c>
-      <c r="F33" s="2">
-        <f t="shared" si="4"/>
         <v>0.13831855439991614</v>
       </c>
       <c r="G33" s="55">
         <v>998.68861578300005</v>
       </c>
       <c r="H33" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22853277500007607</v>
       </c>
       <c r="I33" s="1">
@@ -13733,8 +13745,8 @@
         <v>999.53630232199998</v>
       </c>
       <c r="L33" s="56">
-        <f t="shared" si="1"/>
-        <v>1.0762193140000136</v>
+        <f t="shared" si="5"/>
+        <v>0.84768653899993751</v>
       </c>
       <c r="M33" s="1">
         <v>23.897873870399998</v>
@@ -13752,25 +13764,25 @@
         <v>62</v>
       </c>
       <c r="C34" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>120</v>
       </c>
       <c r="D34" s="56">
         <v>998.52722168000003</v>
       </c>
       <c r="E34" s="1">
+        <f t="shared" si="2"/>
+        <v>998.27643752120002</v>
+      </c>
+      <c r="F34" s="2">
         <f t="shared" si="3"/>
-        <v>998.27643752120002</v>
-      </c>
-      <c r="F34" s="2">
-        <f t="shared" si="4"/>
         <v>0.25078415880000193</v>
       </c>
       <c r="G34" s="55">
         <v>998.68143431700003</v>
       </c>
       <c r="H34" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.15421263700000054</v>
       </c>
       <c r="I34" s="1">
@@ -13784,8 +13796,8 @@
         <v>999.47453211899995</v>
       </c>
       <c r="L34" s="56">
-        <f t="shared" si="1"/>
-        <v>0.94731043899992073</v>
+        <f t="shared" si="5"/>
+        <v>0.79309780199992019</v>
       </c>
       <c r="M34" s="1">
         <v>23.3547512076</v>
@@ -13809,25 +13821,25 @@
         <v>64</v>
       </c>
       <c r="C35" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>118</v>
       </c>
       <c r="D35" s="56">
         <v>998.49676513700001</v>
       </c>
       <c r="E35" s="1">
+        <f t="shared" si="2"/>
+        <v>998.23111058880011</v>
+      </c>
+      <c r="F35" s="2">
         <f t="shared" si="3"/>
-        <v>998.23111058880011</v>
-      </c>
-      <c r="F35" s="2">
-        <f t="shared" si="4"/>
         <v>0.26565454819990464</v>
       </c>
       <c r="G35" s="55">
         <v>998.62977175000003</v>
       </c>
       <c r="H35" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.13300661300002048</v>
       </c>
       <c r="I35" s="1">
@@ -13841,8 +13853,8 @@
         <v>999.40403778100006</v>
       </c>
       <c r="L35" s="56">
-        <f t="shared" ref="L35:L66" si="8">K35-D35</f>
-        <v>0.90727264400004515</v>
+        <f t="shared" si="5"/>
+        <v>0.77426603100002467</v>
       </c>
       <c r="M35" s="1">
         <v>22.811628544800001</v>
@@ -13866,25 +13878,25 @@
         <v>66</v>
       </c>
       <c r="C36" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>116</v>
       </c>
       <c r="D36" s="56">
         <v>998.37982177699996</v>
       </c>
       <c r="E36" s="1">
+        <f t="shared" si="2"/>
+        <v>998.18578365640008</v>
+      </c>
+      <c r="F36" s="2">
         <f t="shared" si="3"/>
-        <v>998.18578365640008</v>
-      </c>
-      <c r="F36" s="2">
-        <f t="shared" si="4"/>
         <v>0.19403812059988468</v>
       </c>
       <c r="G36" s="55">
         <v>998.55600872399998</v>
       </c>
       <c r="H36" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.17618694700001925</v>
       </c>
       <c r="I36" s="1">
@@ -13898,8 +13910,8 @@
         <v>999.341829039</v>
       </c>
       <c r="L36" s="56">
-        <f t="shared" si="8"/>
-        <v>0.96200726200004283</v>
+        <f t="shared" si="5"/>
+        <v>0.78582031500002358</v>
       </c>
       <c r="M36" s="1">
         <v>21.095482137120001</v>
@@ -13924,25 +13936,25 @@
         <v>68</v>
       </c>
       <c r="C37" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>114</v>
       </c>
       <c r="D37" s="56">
         <v>998.35296630899995</v>
       </c>
       <c r="E37" s="1">
+        <f t="shared" si="2"/>
+        <v>998.14045672400005</v>
+      </c>
+      <c r="F37" s="2">
         <f t="shared" si="3"/>
-        <v>998.14045672400005</v>
-      </c>
-      <c r="F37" s="2">
-        <f t="shared" si="4"/>
         <v>0.21250958499990702</v>
       </c>
       <c r="G37" s="55">
         <v>998.49284580200003</v>
       </c>
       <c r="H37" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.1398794930000804</v>
       </c>
       <c r="I37" s="1">
@@ -13956,8 +13968,8 @@
         <v>999.23805209199998</v>
       </c>
       <c r="L37" s="56">
-        <f t="shared" si="8"/>
-        <v>0.88508578300002227</v>
+        <f t="shared" si="5"/>
+        <v>0.74520628999994187</v>
       </c>
       <c r="M37" s="1">
         <v>20.095952442000002</v>
@@ -13975,25 +13987,25 @@
         <v>70</v>
       </c>
       <c r="C38" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>112</v>
       </c>
       <c r="D38" s="56">
         <v>998.24566650400004</v>
       </c>
       <c r="E38" s="1">
+        <f t="shared" si="2"/>
+        <v>998.09512979160002</v>
+      </c>
+      <c r="F38" s="2">
         <f t="shared" si="3"/>
-        <v>998.09512979160002</v>
-      </c>
-      <c r="F38" s="2">
-        <f t="shared" si="4"/>
         <v>0.15053671240002586</v>
       </c>
       <c r="G38" s="55">
         <v>998.50206760699996</v>
       </c>
       <c r="H38" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.25640110299991647</v>
       </c>
       <c r="I38" s="1">
@@ -14007,8 +14019,8 @@
         <v>999.32658604799997</v>
       </c>
       <c r="L38" s="56">
-        <f t="shared" si="8"/>
-        <v>1.0809195439999257</v>
+        <f t="shared" si="5"/>
+        <v>0.82451844100000926</v>
       </c>
       <c r="M38" s="1">
         <v>17.92339784376</v>
@@ -14030,25 +14042,25 @@
         <v>72</v>
       </c>
       <c r="C39" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>110</v>
       </c>
       <c r="D39" s="56">
         <v>998.26776123000002</v>
       </c>
       <c r="E39" s="1">
+        <f t="shared" si="2"/>
+        <v>998.0498028592001</v>
+      </c>
+      <c r="F39" s="2">
         <f t="shared" si="3"/>
-        <v>998.0498028592001</v>
-      </c>
-      <c r="F39" s="2">
-        <f t="shared" si="4"/>
         <v>0.21795837079991998</v>
       </c>
       <c r="G39" s="55">
         <v>998.48495201799994</v>
       </c>
       <c r="H39" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.21719078799992531</v>
       </c>
       <c r="I39" s="1">
@@ -14062,8 +14074,8 @@
         <v>999.30657970000004</v>
       </c>
       <c r="L39" s="56">
-        <f t="shared" si="8"/>
-        <v>1.0388184700000238</v>
+        <f t="shared" si="5"/>
+        <v>0.8216276820000985</v>
       </c>
       <c r="M39" s="1">
         <v>17.224948613280002</v>
@@ -14090,25 +14102,25 @@
         <v>74</v>
       </c>
       <c r="C40" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>108</v>
       </c>
       <c r="D40" s="56">
         <v>998.39251708999996</v>
       </c>
       <c r="E40" s="1">
+        <f t="shared" si="2"/>
+        <v>998.00447592680007</v>
+      </c>
+      <c r="F40" s="2">
         <f t="shared" si="3"/>
-        <v>998.00447592680007</v>
-      </c>
-      <c r="F40" s="2">
-        <f t="shared" si="4"/>
         <v>0.3880411631998868</v>
       </c>
       <c r="G40" s="55">
         <v>998.49378360499998</v>
       </c>
       <c r="H40" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.10126651500002026</v>
       </c>
       <c r="I40" s="1">
@@ -14122,8 +14134,8 @@
         <v>999.23748876299999</v>
       </c>
       <c r="L40" s="56">
-        <f t="shared" si="8"/>
-        <v>0.84497167300003184</v>
+        <f t="shared" si="5"/>
+        <v>0.74370515800001158</v>
       </c>
       <c r="M40" s="1">
         <v>17.727259805759999</v>
@@ -14150,25 +14162,25 @@
         <v>76</v>
       </c>
       <c r="C41" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>106</v>
       </c>
       <c r="D41" s="56">
         <v>998.36468505899995</v>
       </c>
       <c r="E41" s="1">
+        <f t="shared" si="2"/>
+        <v>997.95914899440004</v>
+      </c>
+      <c r="F41" s="2">
         <f t="shared" si="3"/>
-        <v>997.95914899440004</v>
-      </c>
-      <c r="F41" s="2">
-        <f t="shared" si="4"/>
         <v>0.40553606459991443</v>
       </c>
       <c r="G41" s="55">
         <v>998.44360322199998</v>
       </c>
       <c r="H41" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.8918163000025743E-2</v>
       </c>
       <c r="I41" s="1">
@@ -14182,8 +14194,8 @@
         <v>999.18451070399999</v>
       </c>
       <c r="L41" s="56">
-        <f t="shared" si="8"/>
-        <v>0.81982564500003718</v>
+        <f t="shared" si="5"/>
+        <v>0.74090748200001144</v>
       </c>
       <c r="M41" s="1">
         <v>16.370320533360001</v>
@@ -14202,25 +14214,25 @@
         <v>78</v>
       </c>
       <c r="C42" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>104</v>
       </c>
       <c r="D42" s="56">
         <v>998.30859375</v>
       </c>
       <c r="E42" s="1">
+        <f t="shared" si="2"/>
+        <v>997.91382206200001</v>
+      </c>
+      <c r="F42" s="2">
         <f t="shared" si="3"/>
-        <v>997.91382206200001</v>
-      </c>
-      <c r="F42" s="2">
-        <f t="shared" si="4"/>
         <v>0.39477168799999163</v>
       </c>
       <c r="G42" s="55">
         <v>998.42176692299995</v>
       </c>
       <c r="H42" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11317317299995011</v>
       </c>
       <c r="I42" s="1">
@@ -14234,8 +14246,8 @@
         <v>999.18275605999997</v>
       </c>
       <c r="L42" s="56">
-        <f t="shared" si="8"/>
-        <v>0.87416230999997424</v>
+        <f t="shared" si="5"/>
+        <v>0.76098913700002413</v>
       </c>
       <c r="M42" s="1">
         <v>15.342077489520001</v>
@@ -14253,25 +14265,25 @@
         <v>80</v>
       </c>
       <c r="C43" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>102</v>
       </c>
       <c r="D43" s="56">
         <v>998.27655029300001</v>
       </c>
       <c r="E43" s="1">
+        <f t="shared" si="2"/>
+        <v>997.86849512960009</v>
+      </c>
+      <c r="F43" s="2">
         <f t="shared" si="3"/>
-        <v>997.86849512960009</v>
-      </c>
-      <c r="F43" s="2">
-        <f t="shared" si="4"/>
         <v>0.40805516339992209</v>
       </c>
       <c r="G43" s="55">
         <v>998.36809554800004</v>
       </c>
       <c r="H43" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>9.1545255000028192E-2</v>
       </c>
       <c r="I43" s="1">
@@ -14285,8 +14297,8 @@
         <v>999.13830517099996</v>
       </c>
       <c r="L43" s="56">
-        <f t="shared" si="8"/>
-        <v>0.86175487799994244</v>
+        <f t="shared" si="5"/>
+        <v>0.77020962299991425</v>
       </c>
       <c r="M43" s="1">
         <v>16.224960803760002</v>
@@ -14305,25 +14317,25 @@
         <v>82</v>
       </c>
       <c r="C44" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="D44" s="56">
         <v>998.27478027300003</v>
       </c>
       <c r="E44" s="1">
+        <f t="shared" si="2"/>
+        <v>997.82316819720006</v>
+      </c>
+      <c r="F44" s="2">
         <f t="shared" si="3"/>
-        <v>997.82316819720006</v>
-      </c>
-      <c r="F44" s="2">
-        <f t="shared" si="4"/>
         <v>0.45161207579997154</v>
       </c>
       <c r="G44" s="55">
         <v>998.31855800699998</v>
       </c>
       <c r="H44" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.3777733999945667E-2</v>
       </c>
       <c r="I44" s="1">
@@ -14337,8 +14349,8 @@
         <v>999.07797663199995</v>
       </c>
       <c r="L44" s="56">
-        <f t="shared" si="8"/>
-        <v>0.80319635899991226</v>
+        <f t="shared" si="5"/>
+        <v>0.7594186249999666</v>
       </c>
       <c r="M44" s="1">
         <v>16.825874125680002</v>
@@ -14356,25 +14368,25 @@
         <v>84</v>
       </c>
       <c r="C45" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>98</v>
       </c>
       <c r="D45" s="56">
         <v>998.11816406299999</v>
       </c>
       <c r="E45" s="1">
+        <f t="shared" si="2"/>
+        <v>997.77784126480003</v>
+      </c>
+      <c r="F45" s="2">
         <f t="shared" si="3"/>
-        <v>997.77784126480003</v>
-      </c>
-      <c r="F45" s="2">
-        <f t="shared" si="4"/>
         <v>0.34032279819996347</v>
       </c>
       <c r="G45" s="55">
         <v>998.20020198199995</v>
       </c>
       <c r="H45" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>8.2037918999958492E-2</v>
       </c>
       <c r="I45" s="1">
@@ -14388,8 +14400,8 @@
         <v>998.949485192</v>
       </c>
       <c r="L45" s="56">
-        <f t="shared" si="8"/>
-        <v>0.83132112900000266</v>
+        <f t="shared" si="5"/>
+        <v>0.74928321000004416</v>
       </c>
       <c r="M45" s="1">
         <v>15.624017245680001</v>
@@ -14407,25 +14419,25 @@
         <v>86</v>
       </c>
       <c r="C46" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>96</v>
       </c>
       <c r="D46" s="56">
         <v>998.12835693399995</v>
       </c>
       <c r="E46" s="1">
+        <f t="shared" si="2"/>
+        <v>997.7325143324</v>
+      </c>
+      <c r="F46" s="2">
         <f t="shared" si="3"/>
-        <v>997.7325143324</v>
-      </c>
-      <c r="F46" s="2">
-        <f t="shared" si="4"/>
         <v>0.3958426015999521</v>
       </c>
       <c r="G46" s="55">
         <v>998.17784604500002</v>
       </c>
       <c r="H46" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>4.9489111000070807E-2</v>
       </c>
       <c r="I46" s="1">
@@ -14439,8 +14451,8 @@
         <v>998.90012907699997</v>
       </c>
       <c r="L46" s="56">
-        <f t="shared" si="8"/>
-        <v>0.77177214300002106</v>
+        <f t="shared" si="5"/>
+        <v>0.72228303199995025</v>
       </c>
       <c r="M46" s="1">
         <v>16.224960803760002</v>
@@ -14458,25 +14470,25 @@
         <v>88</v>
       </c>
       <c r="C47" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="D47" s="56">
         <v>997.93566894499997</v>
       </c>
       <c r="E47" s="1">
+        <f t="shared" si="2"/>
+        <v>997.68718740000008</v>
+      </c>
+      <c r="F47" s="2">
         <f t="shared" si="3"/>
-        <v>997.68718740000008</v>
-      </c>
-      <c r="F47" s="2">
-        <f t="shared" si="4"/>
         <v>0.2484815449998905</v>
       </c>
       <c r="G47" s="55">
         <v>998.00156731699997</v>
       </c>
       <c r="H47" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>6.5898371999992378E-2</v>
       </c>
       <c r="I47" s="1">
@@ -14490,8 +14502,8 @@
         <v>998.75618152899995</v>
       </c>
       <c r="L47" s="56">
-        <f t="shared" si="8"/>
-        <v>0.82051258399997096</v>
+        <f t="shared" si="5"/>
+        <v>0.75461421199997858</v>
       </c>
       <c r="M47" s="1">
         <v>15.323576281919999</v>
@@ -14509,25 +14521,25 @@
         <v>90</v>
       </c>
       <c r="C48" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>92</v>
       </c>
       <c r="D48" s="56">
         <v>997.77313232400002</v>
       </c>
       <c r="E48" s="1">
+        <f t="shared" si="2"/>
+        <v>997.64186046760005</v>
+      </c>
+      <c r="F48" s="2">
         <f t="shared" si="3"/>
-        <v>997.64186046760005</v>
-      </c>
-      <c r="F48" s="2">
-        <f t="shared" si="4"/>
         <v>0.13127185639996242</v>
       </c>
       <c r="G48" s="55">
         <v>997.90277660699996</v>
       </c>
       <c r="H48" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.12964428299994779</v>
       </c>
       <c r="I48" s="1">
@@ -14541,8 +14553,8 @@
         <v>998.78434150199996</v>
       </c>
       <c r="L48" s="56">
-        <f t="shared" si="8"/>
-        <v>1.0112091779999446</v>
+        <f t="shared" si="5"/>
+        <v>0.8815648949999968</v>
       </c>
       <c r="M48" s="1">
         <v>14.422190601840001</v>
@@ -14561,25 +14573,25 @@
         <v>92</v>
       </c>
       <c r="C49" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>90</v>
       </c>
       <c r="D49" s="56">
         <v>997.77453613299997</v>
       </c>
       <c r="E49" s="1">
+        <f t="shared" si="2"/>
+        <v>997.59653353520002</v>
+      </c>
+      <c r="F49" s="2">
         <f t="shared" si="3"/>
-        <v>997.59653353520002</v>
-      </c>
-      <c r="F49" s="2">
-        <f t="shared" si="4"/>
         <v>0.17800259779994576</v>
       </c>
       <c r="G49" s="55">
         <v>997.85193018300004</v>
       </c>
       <c r="H49" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>7.7394050000066272E-2</v>
       </c>
       <c r="I49" s="1">
@@ -14593,8 +14605,8 @@
         <v>998.73649353099995</v>
       </c>
       <c r="L49" s="56">
-        <f t="shared" si="8"/>
-        <v>0.96195739799998137</v>
+        <f t="shared" si="5"/>
+        <v>0.88456334799991509</v>
       </c>
       <c r="M49" s="1">
         <v>14.060027851440001</v>
@@ -14612,25 +14624,25 @@
         <v>94</v>
       </c>
       <c r="C50" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>88</v>
       </c>
       <c r="D50" s="56">
         <v>997.71441650400004</v>
       </c>
       <c r="E50" s="1">
+        <f t="shared" si="2"/>
+        <v>997.55120660280011</v>
+      </c>
+      <c r="F50" s="2">
         <f t="shared" si="3"/>
-        <v>997.55120660280011</v>
-      </c>
-      <c r="F50" s="2">
-        <f t="shared" si="4"/>
         <v>0.16320990119993439</v>
       </c>
       <c r="G50" s="55">
         <v>997.76539519200003</v>
       </c>
       <c r="H50" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>5.0978687999986505E-2</v>
       </c>
       <c r="I50" s="1">
@@ -14644,8 +14656,8 @@
         <v>998.65142871</v>
       </c>
       <c r="L50" s="56">
-        <f t="shared" si="8"/>
-        <v>0.93701220599996304</v>
+        <f t="shared" si="5"/>
+        <v>0.88603351799997654</v>
       </c>
       <c r="M50" s="1">
         <v>13.038978544800001</v>
@@ -14663,25 +14675,25 @@
         <v>96</v>
       </c>
       <c r="C51" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>86</v>
       </c>
       <c r="D51" s="56">
         <v>997.65747070299994</v>
       </c>
       <c r="E51" s="1">
+        <f t="shared" si="2"/>
+        <v>997.50587967040008</v>
+      </c>
+      <c r="F51" s="2">
         <f t="shared" si="3"/>
-        <v>997.50587967040008</v>
-      </c>
-      <c r="F51" s="2">
-        <f t="shared" si="4"/>
         <v>0.1515910325998675</v>
       </c>
       <c r="G51" s="55">
         <v>997.68376785800001</v>
       </c>
       <c r="H51" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6297155000065686E-2</v>
       </c>
       <c r="I51" s="1">
@@ -14695,8 +14707,8 @@
         <v>998.65008640099995</v>
       </c>
       <c r="L51" s="56">
-        <f t="shared" si="8"/>
-        <v>0.99261569800000871</v>
+        <f t="shared" si="5"/>
+        <v>0.96631854299994302</v>
       </c>
       <c r="M51" s="1">
         <v>13.979499020880001</v>
@@ -14714,25 +14726,25 @@
         <v>98</v>
       </c>
       <c r="C52" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>84</v>
       </c>
       <c r="D52" s="56">
         <v>997.44671630899995</v>
       </c>
       <c r="E52" s="1">
+        <f t="shared" si="2"/>
+        <v>997.46055273800005</v>
+      </c>
+      <c r="F52" s="2">
         <f t="shared" si="3"/>
-        <v>997.46055273800005</v>
-      </c>
-      <c r="F52" s="2">
-        <f t="shared" si="4"/>
         <v>-1.3836429000093631E-2</v>
       </c>
       <c r="G52" s="55">
         <v>997.47370346399998</v>
       </c>
       <c r="H52" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>2.6987155000028906E-2</v>
       </c>
       <c r="I52" s="1">
@@ -14746,8 +14758,8 @@
         <v>998.69702768000002</v>
       </c>
       <c r="L52" s="56">
-        <f t="shared" si="8"/>
-        <v>1.2503113710000662</v>
+        <f t="shared" si="5"/>
+        <v>1.2233242160000373</v>
       </c>
       <c r="M52" s="1">
         <v>11.437772796240001</v>
@@ -14765,25 +14777,25 @@
         <v>100</v>
       </c>
       <c r="C53" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>82</v>
       </c>
       <c r="D53" s="56">
         <v>997.09106445299994</v>
       </c>
       <c r="E53" s="1">
+        <f t="shared" si="2"/>
+        <v>997.41522580560002</v>
+      </c>
+      <c r="F53" s="2">
         <f t="shared" si="3"/>
-        <v>997.41522580560002</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="4"/>
         <v>-0.32416135260007195</v>
       </c>
       <c r="G53" s="55">
         <v>997.20739055900003</v>
       </c>
       <c r="H53" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.11632610600008775</v>
       </c>
       <c r="I53" s="1">
@@ -14797,8 +14809,8 @@
         <v>998.649900054</v>
       </c>
       <c r="L53" s="56">
-        <f t="shared" si="8"/>
-        <v>1.5588356010000552</v>
+        <f t="shared" si="5"/>
+        <v>1.4425094949999675</v>
       </c>
       <c r="M53" s="1">
         <v>11.978304902880001</v>
@@ -14816,25 +14828,25 @@
         <v>102</v>
       </c>
       <c r="C54" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="D54" s="56">
         <v>996.69470214800003</v>
       </c>
       <c r="E54" s="1">
+        <f t="shared" si="2"/>
+        <v>997.3698988732001</v>
+      </c>
+      <c r="F54" s="2">
         <f t="shared" si="3"/>
-        <v>997.3698988732001</v>
-      </c>
-      <c r="F54" s="2">
-        <f t="shared" si="4"/>
         <v>-0.67519672520006679</v>
       </c>
       <c r="G54" s="55">
         <v>996.88826785000003</v>
       </c>
       <c r="H54" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.19356570200000078</v>
       </c>
       <c r="I54" s="1">
@@ -14848,8 +14860,8 @@
         <v>998.20609631100001</v>
       </c>
       <c r="L54" s="56">
-        <f t="shared" si="8"/>
-        <v>1.5113941629999772</v>
+        <f t="shared" si="5"/>
+        <v>1.3178284609999764</v>
       </c>
       <c r="M54" s="1">
         <v>10.50029861328</v>
@@ -14867,25 +14879,25 @@
         <v>104</v>
       </c>
       <c r="C55" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>78</v>
       </c>
       <c r="D55" s="56">
         <v>996.87084960899995</v>
       </c>
       <c r="E55" s="1">
+        <f t="shared" si="2"/>
+        <v>997.32457194080007</v>
+      </c>
+      <c r="F55" s="2">
         <f t="shared" si="3"/>
-        <v>997.32457194080007</v>
-      </c>
-      <c r="F55" s="2">
-        <f t="shared" si="4"/>
         <v>-0.45372233180012245</v>
       </c>
       <c r="G55" s="55">
         <v>997.09526121399995</v>
       </c>
       <c r="H55" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.22441160500000024</v>
       </c>
       <c r="I55" s="1">
@@ -14899,8 +14911,8 @@
         <v>998.032516762</v>
       </c>
       <c r="L55" s="56">
-        <f t="shared" si="8"/>
-        <v>1.1616671530000531</v>
+        <f t="shared" si="5"/>
+        <v>0.93725554800005284</v>
       </c>
       <c r="M55" s="1">
         <v>10.65449732952</v>
@@ -14918,25 +14930,25 @@
         <v>106</v>
       </c>
       <c r="C56" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>76</v>
       </c>
       <c r="D56" s="56">
         <v>996.51507568399995</v>
       </c>
       <c r="E56" s="1">
+        <f t="shared" si="2"/>
+        <v>997.27924500840004</v>
+      </c>
+      <c r="F56" s="2">
         <f t="shared" si="3"/>
-        <v>997.27924500840004</v>
-      </c>
-      <c r="F56" s="2">
-        <f t="shared" si="4"/>
         <v>-0.76416932440008623</v>
       </c>
       <c r="G56" s="55">
         <v>997.01873478899995</v>
       </c>
       <c r="H56" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.503659104999997</v>
       </c>
       <c r="I56" s="1">
@@ -14950,8 +14962,8 @@
         <v>998.03826447300003</v>
       </c>
       <c r="L56" s="56">
-        <f t="shared" si="8"/>
-        <v>1.5231887890000735</v>
+        <f t="shared" si="5"/>
+        <v>1.0195296840000765</v>
       </c>
       <c r="M56" s="1">
         <v>11.35764044952</v>
@@ -14969,25 +14981,25 @@
         <v>108</v>
       </c>
       <c r="C57" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>74</v>
       </c>
       <c r="D57" s="56">
         <v>996.45324706999997</v>
       </c>
       <c r="E57" s="1">
+        <f t="shared" si="2"/>
+        <v>997.23391807600001</v>
+      </c>
+      <c r="F57" s="2">
         <f t="shared" si="3"/>
-        <v>997.23391807600001</v>
-      </c>
-      <c r="F57" s="2">
-        <f t="shared" si="4"/>
         <v>-0.78067100600003414</v>
       </c>
       <c r="G57" s="55">
         <v>997.00522618699995</v>
       </c>
       <c r="H57" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.55197911699997348</v>
       </c>
       <c r="I57" s="1">
@@ -15001,8 +15013,8 @@
         <v>998.14661898600002</v>
       </c>
       <c r="L57" s="56">
-        <f t="shared" si="8"/>
-        <v>1.6933719160000464</v>
+        <f t="shared" si="5"/>
+        <v>1.141392799000073</v>
       </c>
       <c r="M57" s="1">
         <v>11.35255007616</v>
@@ -15020,25 +15032,25 @@
         <v>110</v>
       </c>
       <c r="C58" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
       <c r="D58" s="56">
         <v>996.61364746100003</v>
       </c>
       <c r="E58" s="1">
+        <f t="shared" si="2"/>
+        <v>997.18859114360009</v>
+      </c>
+      <c r="F58" s="2">
         <f t="shared" si="3"/>
-        <v>997.18859114360009</v>
-      </c>
-      <c r="F58" s="2">
-        <f t="shared" si="4"/>
         <v>-0.57494368260006468</v>
       </c>
       <c r="G58" s="55">
         <v>997.07177251799999</v>
       </c>
       <c r="H58" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.45812505699996109</v>
       </c>
       <c r="I58" s="1">
@@ -15052,8 +15064,8 @@
         <v>998.23815292500001</v>
       </c>
       <c r="L58" s="56">
-        <f t="shared" si="8"/>
-        <v>1.6245054639999807</v>
+        <f t="shared" si="5"/>
+        <v>1.1663804070000197</v>
       </c>
       <c r="M58" s="1">
         <v>9.64838316192</v>
@@ -15071,25 +15083,25 @@
         <v>112</v>
       </c>
       <c r="C59" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="D59" s="56">
         <v>996.47576904300001</v>
       </c>
       <c r="E59" s="1">
+        <f t="shared" si="2"/>
+        <v>997.14326421120006</v>
+      </c>
+      <c r="F59" s="2">
         <f t="shared" si="3"/>
-        <v>997.14326421120006</v>
-      </c>
-      <c r="F59" s="2">
-        <f t="shared" si="4"/>
         <v>-0.66749516820004828</v>
       </c>
       <c r="G59" s="55">
         <v>997.07299007500001</v>
       </c>
       <c r="H59" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.5972210319999931</v>
       </c>
       <c r="I59" s="1">
@@ -15103,8 +15115,8 @@
         <v>998.27178863300003</v>
       </c>
       <c r="L59" s="56">
-        <f t="shared" si="8"/>
-        <v>1.7960195900000144</v>
+        <f t="shared" si="5"/>
+        <v>1.1987985580000213</v>
       </c>
       <c r="M59" s="1">
         <v>10.93485230856</v>
@@ -15122,25 +15134,25 @@
         <v>114</v>
       </c>
       <c r="C60" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>68</v>
       </c>
       <c r="D60" s="56">
         <v>996.44604492200006</v>
       </c>
       <c r="E60" s="1">
+        <f t="shared" si="2"/>
+        <v>997.09793727880003</v>
+      </c>
+      <c r="F60" s="2">
         <f t="shared" si="3"/>
-        <v>997.09793727880003</v>
-      </c>
-      <c r="F60" s="2">
-        <f t="shared" si="4"/>
         <v>-0.65189235679997637</v>
       </c>
       <c r="G60" s="55">
         <v>997.08109516800005</v>
       </c>
       <c r="H60" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.6350502459999916</v>
       </c>
       <c r="I60" s="1">
@@ -15154,8 +15166,8 @@
         <v>998.32153305500003</v>
       </c>
       <c r="L60" s="56">
-        <f t="shared" si="8"/>
-        <v>1.8754881329999762</v>
+        <f t="shared" si="5"/>
+        <v>1.2404378869999846</v>
       </c>
       <c r="M60" s="1">
         <v>11.578072358160002</v>
@@ -15173,25 +15185,25 @@
         <v>116</v>
       </c>
       <c r="C61" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>66</v>
       </c>
       <c r="D61" s="56">
         <v>996.552246094</v>
       </c>
       <c r="E61" s="1">
+        <f t="shared" si="2"/>
+        <v>997.0526103464</v>
+      </c>
+      <c r="F61" s="2">
         <f t="shared" si="3"/>
-        <v>997.0526103464</v>
-      </c>
-      <c r="F61" s="2">
-        <f t="shared" si="4"/>
         <v>-0.50036425240000426</v>
       </c>
       <c r="G61" s="55">
         <v>997.04836530900002</v>
       </c>
       <c r="H61" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.49611921500002154</v>
       </c>
       <c r="I61" s="1">
@@ -15205,8 +15217,8 @@
         <v>998.28129101499997</v>
       </c>
       <c r="L61" s="56">
-        <f t="shared" si="8"/>
-        <v>1.7290449209999679</v>
+        <f t="shared" si="5"/>
+        <v>1.2329257059999463</v>
       </c>
       <c r="M61" s="1">
         <v>11.578072358160002</v>
@@ -15224,25 +15236,25 @@
         <v>118</v>
       </c>
       <c r="C62" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="D62" s="56">
         <v>997.04748535199997</v>
       </c>
       <c r="E62" s="1">
+        <f t="shared" si="2"/>
+        <v>997.00728341400009</v>
+      </c>
+      <c r="F62" s="2">
         <f t="shared" si="3"/>
-        <v>997.00728341400009</v>
-      </c>
-      <c r="F62" s="2">
-        <f t="shared" si="4"/>
         <v>4.020193799988192E-2</v>
       </c>
       <c r="G62" s="55">
         <v>997.23704107599997</v>
       </c>
       <c r="H62" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.18955572400000165</v>
       </c>
       <c r="I62" s="1">
@@ -15256,8 +15268,8 @@
         <v>998.38065291600003</v>
       </c>
       <c r="L62" s="56">
-        <f t="shared" si="8"/>
-        <v>1.333167564000064</v>
+        <f t="shared" si="5"/>
+        <v>1.1436118400000623</v>
       </c>
       <c r="M62" s="1">
         <v>11.830294175279999</v>
@@ -15275,25 +15287,25 @@
         <v>120</v>
       </c>
       <c r="C63" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>62</v>
       </c>
       <c r="D63" s="56">
         <v>996.49261474599996</v>
       </c>
       <c r="E63" s="1">
+        <f t="shared" si="2"/>
+        <v>996.96195648160005</v>
+      </c>
+      <c r="F63" s="2">
         <f t="shared" si="3"/>
-        <v>996.96195648160005</v>
-      </c>
-      <c r="F63" s="2">
-        <f t="shared" si="4"/>
         <v>-0.4693417356000964</v>
       </c>
       <c r="G63" s="55">
         <v>996.97599705200003</v>
       </c>
       <c r="H63" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.48338230600006682</v>
       </c>
       <c r="I63" s="1">
@@ -15307,8 +15319,8 @@
         <v>998.14427057299997</v>
       </c>
       <c r="L63" s="56">
-        <f t="shared" si="8"/>
-        <v>1.6516558270000132</v>
+        <f t="shared" si="5"/>
+        <v>1.1682735209999464</v>
       </c>
       <c r="M63" s="1">
         <v>12.84930174864</v>
@@ -15326,25 +15338,25 @@
         <v>122</v>
       </c>
       <c r="C64" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>60</v>
       </c>
       <c r="D64" s="56">
         <v>996.57025146499996</v>
       </c>
       <c r="E64" s="1">
+        <f t="shared" si="2"/>
+        <v>996.91662954920002</v>
+      </c>
+      <c r="F64" s="2">
         <f t="shared" si="3"/>
-        <v>996.91662954920002</v>
-      </c>
-      <c r="F64" s="2">
-        <f t="shared" si="4"/>
         <v>-0.34637808420006877</v>
       </c>
       <c r="G64" s="55">
         <v>997.05408714400005</v>
       </c>
       <c r="H64" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.48383567900009439</v>
       </c>
       <c r="I64" s="1">
@@ -15358,8 +15370,8 @@
         <v>998.24600854000005</v>
       </c>
       <c r="L64" s="56">
-        <f t="shared" si="8"/>
-        <v>1.6757570750000923</v>
+        <f t="shared" si="5"/>
+        <v>1.1919213959999979</v>
       </c>
       <c r="M64" s="1">
         <v>12.487656365759999</v>
@@ -15377,25 +15389,25 @@
         <v>124</v>
       </c>
       <c r="C65" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>58</v>
       </c>
       <c r="D65" s="56">
         <v>996.730957031</v>
       </c>
       <c r="E65" s="1">
+        <f t="shared" si="2"/>
+        <v>996.87130261680011</v>
+      </c>
+      <c r="F65" s="2">
         <f t="shared" si="3"/>
-        <v>996.87130261680011</v>
-      </c>
-      <c r="F65" s="2">
-        <f t="shared" si="4"/>
         <v>-0.14034558580010525</v>
       </c>
       <c r="G65" s="55">
         <v>997.07245436200003</v>
       </c>
       <c r="H65" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.34149733100002777</v>
       </c>
       <c r="I65" s="1">
@@ -15409,8 +15421,8 @@
         <v>998.22936881199996</v>
       </c>
       <c r="L65" s="56">
-        <f t="shared" si="8"/>
-        <v>1.4984117809999589</v>
+        <f t="shared" si="5"/>
+        <v>1.1569144499999311</v>
       </c>
       <c r="M65" s="1">
         <v>13.72154732952</v>
@@ -15428,25 +15440,25 @@
         <v>126</v>
       </c>
       <c r="C66" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="D66" s="56">
         <v>996.84869384800004</v>
       </c>
       <c r="E66" s="1">
+        <f t="shared" si="2"/>
+        <v>996.82597568440008</v>
+      </c>
+      <c r="F66" s="2">
         <f t="shared" si="3"/>
-        <v>996.82597568440008</v>
-      </c>
-      <c r="F66" s="2">
-        <f t="shared" si="4"/>
         <v>2.2718163599961372E-2</v>
       </c>
       <c r="G66" s="55">
         <v>997.07928538099998</v>
       </c>
       <c r="H66" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.23059153299993795</v>
       </c>
       <c r="I66" s="1">
@@ -15460,8 +15472,8 @@
         <v>998.16701026999999</v>
       </c>
       <c r="L66" s="56">
-        <f t="shared" si="8"/>
-        <v>1.3183164219999526</v>
+        <f t="shared" si="5"/>
+        <v>1.0877248890000146</v>
       </c>
       <c r="M66" s="1">
         <v>12.864511268640001</v>
@@ -15479,40 +15491,40 @@
         <v>128</v>
       </c>
       <c r="C67" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>54</v>
       </c>
       <c r="D67" s="56">
         <v>996.854980469</v>
       </c>
       <c r="E67" s="1">
+        <f t="shared" si="2"/>
+        <v>996.78064875200005</v>
+      </c>
+      <c r="F67" s="2">
         <f t="shared" si="3"/>
-        <v>996.78064875200005</v>
-      </c>
-      <c r="F67" s="2">
-        <f t="shared" si="4"/>
         <v>7.4331716999950004E-2</v>
       </c>
       <c r="G67" s="55">
         <v>997.06460681199997</v>
       </c>
       <c r="H67" s="55">
-        <f t="shared" si="5"/>
+        <f t="shared" si="4"/>
         <v>0.20962634299996807</v>
       </c>
       <c r="I67" s="1">
         <v>3.9435633600000002</v>
       </c>
       <c r="J67" s="1">
-        <f t="shared" ref="J67:J94" si="9">I67*0.5</f>
+        <f t="shared" ref="J67:J94" si="8">I67*0.5</f>
         <v>1.9717816800000001</v>
       </c>
       <c r="K67" s="56">
         <v>998.11372626800005</v>
       </c>
       <c r="L67" s="56">
-        <f t="shared" ref="L67:L94" si="10">K67-D67</f>
-        <v>1.258745799000053</v>
+        <f t="shared" si="5"/>
+        <v>1.0491194560000849</v>
       </c>
       <c r="M67" s="1">
         <v>12.864511268640001</v>
@@ -15530,46 +15542,46 @@
         <v>130</v>
       </c>
       <c r="C68" s="5">
-        <f t="shared" ref="C68:C94" si="11">$B$94-B68</f>
+        <f t="shared" ref="C68:C94" si="9">$B$94-B68</f>
         <v>52</v>
       </c>
       <c r="D68" s="56">
         <v>996.918457031</v>
       </c>
       <c r="E68" s="1">
-        <f t="shared" ref="E68:E94" si="12">-0.0226634662*B68+999.6815724256</f>
+        <f t="shared" ref="E68:E94" si="10">-0.0226634662*B68+999.6815724256</f>
         <v>996.73532181960002</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ref="F68:F94" si="13">D68-E68</f>
+        <f t="shared" ref="F68:F94" si="11">D68-E68</f>
         <v>0.18313521139998556</v>
       </c>
       <c r="G68" s="55">
         <v>997.08281013099997</v>
       </c>
       <c r="H68" s="55">
-        <f t="shared" ref="H68:H94" si="14">G68-D68</f>
+        <f t="shared" ref="H68:H94" si="12">G68-D68</f>
         <v>0.16435309999997116</v>
       </c>
       <c r="I68" s="1">
         <v>5.030571417</v>
       </c>
       <c r="J68" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.5152857085</v>
       </c>
       <c r="K68" s="56">
         <v>998.09899280699995</v>
       </c>
       <c r="L68" s="56">
-        <f t="shared" si="10"/>
-        <v>1.1805357759999424</v>
+        <f t="shared" ref="L68:L94" si="13">K68-G68</f>
+        <v>1.0161826759999713</v>
       </c>
       <c r="M68" s="1">
         <v>12.835372358160001</v>
       </c>
       <c r="N68" s="1">
-        <f t="shared" ref="N68:N94" si="15">M68*0.5</f>
+        <f t="shared" ref="N68:N94" si="14">M68*0.5</f>
         <v>6.4176861790800004</v>
       </c>
     </row>
@@ -15581,46 +15593,46 @@
         <v>132</v>
       </c>
       <c r="C69" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>50</v>
       </c>
       <c r="D69" s="56">
         <v>996.91546630899995</v>
       </c>
       <c r="E69" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.6899948872001</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.22547142179985258</v>
       </c>
       <c r="G69" s="55">
         <v>997.07011327500004</v>
       </c>
       <c r="H69" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.15464696600008665</v>
       </c>
       <c r="I69" s="1">
         <v>5.2628595889999996</v>
       </c>
       <c r="J69" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.6314297944999998</v>
       </c>
       <c r="K69" s="56">
         <v>998.05115123600001</v>
       </c>
       <c r="L69" s="56">
-        <f t="shared" si="10"/>
-        <v>1.1356849270000566</v>
+        <f t="shared" si="13"/>
+        <v>0.98103796099996998</v>
       </c>
       <c r="M69" s="1">
         <v>11.621567379120002</v>
       </c>
       <c r="N69" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.8107836895600009</v>
       </c>
     </row>
@@ -15632,46 +15644,46 @@
         <v>134</v>
       </c>
       <c r="C70" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="D70" s="56">
         <v>996.89660644499997</v>
       </c>
       <c r="E70" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.64466795480007</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.25193849019990466</v>
       </c>
       <c r="G70" s="55">
         <v>997.03609181700006</v>
       </c>
       <c r="H70" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.13948537200008104</v>
       </c>
       <c r="I70" s="1">
         <v>5.4481168760000003</v>
       </c>
       <c r="J70" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.7240584380000001</v>
       </c>
       <c r="K70" s="56">
         <v>997.97362700799999</v>
       </c>
       <c r="L70" s="56">
-        <f t="shared" si="10"/>
-        <v>1.0770205630000191</v>
+        <f t="shared" si="13"/>
+        <v>0.9375351909999381</v>
       </c>
       <c r="M70" s="1">
         <v>12.864511268640001</v>
       </c>
       <c r="N70" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.4322556343200006</v>
       </c>
     </row>
@@ -15683,46 +15695,46 @@
         <v>136</v>
       </c>
       <c r="C71" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>46</v>
       </c>
       <c r="D71" s="56">
         <v>996.88189697300004</v>
       </c>
       <c r="E71" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.59934102240004</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.28255595059999905</v>
       </c>
       <c r="G71" s="55">
         <v>997.04323853599999</v>
       </c>
       <c r="H71" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.16134156299995084</v>
       </c>
       <c r="I71" s="1">
         <v>4.9940568040000004</v>
       </c>
       <c r="J71" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.4970284020000002</v>
       </c>
       <c r="K71" s="56">
         <v>997.98224775999995</v>
       </c>
       <c r="L71" s="56">
-        <f t="shared" si="10"/>
-        <v>1.1003507869999112</v>
+        <f t="shared" si="13"/>
+        <v>0.93900922399996034</v>
       </c>
       <c r="M71" s="1">
         <v>13.388828106720002</v>
       </c>
       <c r="N71" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.6944140533600009</v>
       </c>
     </row>
@@ -15734,46 +15746,46 @@
         <v>138</v>
       </c>
       <c r="C72" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>44</v>
       </c>
       <c r="D72" s="56">
         <v>996.85784912099996</v>
       </c>
       <c r="E72" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.55401409000001</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.30383503099994869</v>
       </c>
       <c r="G72" s="55">
         <v>996.99697784700004</v>
       </c>
       <c r="H72" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.13912872600008086</v>
       </c>
       <c r="I72" s="1">
         <v>4.4186855090000003</v>
       </c>
       <c r="J72" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2093427545000002</v>
       </c>
       <c r="K72" s="56">
         <v>997.91647778100003</v>
       </c>
       <c r="L72" s="56">
-        <f t="shared" si="10"/>
-        <v>1.0586286600000676</v>
+        <f t="shared" si="13"/>
+        <v>0.91949993399998675</v>
       </c>
       <c r="M72" s="1">
         <v>13.154131984800001</v>
       </c>
       <c r="N72" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.5770659924000006</v>
       </c>
     </row>
@@ -15785,46 +15797,46 @@
         <v>140</v>
       </c>
       <c r="C73" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>42</v>
       </c>
       <c r="D73" s="56">
         <v>996.87597656299999</v>
       </c>
       <c r="E73" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.50868715760009</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.36728940539990163</v>
       </c>
       <c r="G73" s="55">
         <v>996.99680069299995</v>
       </c>
       <c r="H73" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.12082412999995995</v>
       </c>
       <c r="I73" s="1">
         <v>5.8623404109999999</v>
       </c>
       <c r="J73" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.9311702055</v>
       </c>
       <c r="K73" s="56">
         <v>997.84783836999998</v>
       </c>
       <c r="L73" s="56">
-        <f t="shared" si="10"/>
-        <v>0.97186180699998204</v>
+        <f t="shared" si="13"/>
+        <v>0.85103767700002209</v>
       </c>
       <c r="M73" s="1">
         <v>12.781726796160001</v>
       </c>
       <c r="N73" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.3908633980800005</v>
       </c>
     </row>
@@ -15836,46 +15848,46 @@
         <v>142</v>
       </c>
       <c r="C74" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="D74" s="56">
         <v>996.77276611299999</v>
       </c>
       <c r="E74" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.46336022520006</v>
       </c>
       <c r="F74" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.30940588779992595</v>
       </c>
       <c r="G74" s="55">
         <v>996.87565624800004</v>
       </c>
       <c r="H74" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.1028901350000524</v>
       </c>
       <c r="I74" s="1">
         <v>5.0294133600000004</v>
       </c>
       <c r="J74" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.5147066800000002</v>
       </c>
       <c r="K74" s="56">
         <v>997.69888114699995</v>
       </c>
       <c r="L74" s="56">
-        <f t="shared" si="10"/>
-        <v>0.92611503399996309</v>
+        <f t="shared" si="13"/>
+        <v>0.82322489899991069</v>
       </c>
       <c r="M74" s="1">
         <v>13.154131984800001</v>
       </c>
       <c r="N74" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.5770659924000006</v>
       </c>
     </row>
@@ -15887,46 +15899,46 @@
         <v>144</v>
       </c>
       <c r="C75" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>38</v>
       </c>
       <c r="D75" s="56">
         <v>996.707519531</v>
       </c>
       <c r="E75" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.41803329280003</v>
       </c>
       <c r="F75" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.2894862381999701</v>
       </c>
       <c r="G75" s="55">
         <v>996.76803570200002</v>
       </c>
       <c r="H75" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.0516171000017493E-2</v>
       </c>
       <c r="I75" s="1">
         <v>5.8458199159999999</v>
       </c>
       <c r="J75" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.922909958</v>
       </c>
       <c r="K75" s="56">
         <v>997.60250407299998</v>
       </c>
       <c r="L75" s="56">
-        <f t="shared" si="10"/>
-        <v>0.89498454199997468</v>
+        <f t="shared" si="13"/>
+        <v>0.83446837099995719</v>
       </c>
       <c r="M75" s="1">
         <v>12.232051055279999</v>
       </c>
       <c r="N75" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.1160255276399997</v>
       </c>
     </row>
@@ -15938,46 +15950,46 @@
         <v>146</v>
       </c>
       <c r="C76" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>36</v>
       </c>
       <c r="D76" s="56">
         <v>996.49932861299999</v>
       </c>
       <c r="E76" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.3727063604</v>
       </c>
       <c r="F76" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>0.1266222525999865</v>
       </c>
       <c r="G76" s="55">
         <v>996.62614132399995</v>
       </c>
       <c r="H76" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.12681271099995683</v>
       </c>
       <c r="I76" s="1">
         <v>7.0285965600000004</v>
       </c>
       <c r="J76" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.5142982800000002</v>
       </c>
       <c r="K76" s="56">
         <v>997.58863840200002</v>
       </c>
       <c r="L76" s="56">
-        <f t="shared" si="10"/>
-        <v>1.0893097890000263</v>
+        <f t="shared" si="13"/>
+        <v>0.96249707800006945</v>
       </c>
       <c r="M76" s="1">
         <v>12.32531976384</v>
       </c>
       <c r="N76" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.1626598819199998</v>
       </c>
     </row>
@@ -15989,46 +16001,46 @@
         <v>148</v>
       </c>
       <c r="C77" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>34</v>
       </c>
       <c r="D77" s="56">
         <v>996.42297363299997</v>
       </c>
       <c r="E77" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.32737942800009</v>
       </c>
       <c r="F77" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.5594204999883914E-2</v>
       </c>
       <c r="G77" s="55">
         <v>996.551508614</v>
       </c>
       <c r="H77" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.1285349810000298</v>
       </c>
       <c r="I77" s="1">
         <v>5.6148427500000002</v>
       </c>
       <c r="J77" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.8074213750000001</v>
       </c>
       <c r="K77" s="56">
         <v>997.57360646500001</v>
       </c>
       <c r="L77" s="56">
-        <f t="shared" si="10"/>
-        <v>1.1506328320000421</v>
+        <f t="shared" si="13"/>
+        <v>1.0220978510000123</v>
       </c>
       <c r="M77" s="1">
         <v>10.866455340960002</v>
       </c>
       <c r="N77" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.4332276704800009</v>
       </c>
     </row>
@@ -16040,46 +16052,46 @@
         <v>150</v>
       </c>
       <c r="C78" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>32</v>
       </c>
       <c r="D78" s="56">
         <v>996.38006591800001</v>
       </c>
       <c r="E78" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.28205249560006</v>
       </c>
       <c r="F78" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.8013422399958472E-2</v>
       </c>
       <c r="G78" s="55">
         <v>996.47187463199998</v>
       </c>
       <c r="H78" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>9.180871399996704E-2</v>
       </c>
       <c r="I78" s="1">
         <v>4.8709782590000001</v>
       </c>
       <c r="J78" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.4354891295000001</v>
       </c>
       <c r="K78" s="56">
         <v>997.48679486499998</v>
       </c>
       <c r="L78" s="56">
-        <f t="shared" si="10"/>
-        <v>1.106728946999965</v>
+        <f t="shared" si="13"/>
+        <v>1.014920232999998</v>
       </c>
       <c r="M78" s="1">
         <v>11.474226358080001</v>
       </c>
       <c r="N78" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.7371131790400005</v>
       </c>
     </row>
@@ -16091,46 +16103,46 @@
         <v>152</v>
       </c>
       <c r="C79" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>30</v>
       </c>
       <c r="D79" s="56">
         <v>996.32818603500004</v>
       </c>
       <c r="E79" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.23672556320003</v>
       </c>
       <c r="F79" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>9.146047180001915E-2</v>
       </c>
       <c r="G79" s="55">
         <v>996.43806752499995</v>
       </c>
       <c r="H79" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.10988148999990699</v>
       </c>
       <c r="I79" s="1">
         <v>4.9896977680000001</v>
       </c>
       <c r="J79" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.494848884</v>
       </c>
       <c r="K79" s="56">
         <v>997.51899548699998</v>
       </c>
       <c r="L79" s="56">
-        <f t="shared" si="10"/>
-        <v>1.1908094519999395</v>
+        <f t="shared" si="13"/>
+        <v>1.0809279620000325</v>
       </c>
       <c r="M79" s="1">
         <v>12.582205264800001</v>
       </c>
       <c r="N79" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.2911026324000003</v>
       </c>
     </row>
@@ -16142,46 +16154,46 @@
         <v>154</v>
       </c>
       <c r="C80" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>28</v>
       </c>
       <c r="D80" s="56">
         <v>996.20239257799994</v>
       </c>
       <c r="E80" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.19139863080011</v>
       </c>
       <c r="F80" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>1.0993947199835929E-2</v>
       </c>
       <c r="G80" s="55">
         <v>996.37424938000004</v>
       </c>
       <c r="H80" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.17185680200009301</v>
       </c>
       <c r="I80" s="1">
         <v>6.0887155540000002</v>
       </c>
       <c r="J80" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.0443577770000001</v>
       </c>
       <c r="K80" s="56">
         <v>997.54912795799999</v>
       </c>
       <c r="L80" s="56">
-        <f t="shared" si="10"/>
-        <v>1.346735380000041</v>
+        <f t="shared" si="13"/>
+        <v>1.174878577999948</v>
       </c>
       <c r="M80" s="1">
         <v>12.0102785448</v>
       </c>
       <c r="N80" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.0051392724000001</v>
       </c>
     </row>
@@ -16193,46 +16205,46 @@
         <v>156</v>
       </c>
       <c r="C81" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>26</v>
       </c>
       <c r="D81" s="56">
         <v>996.20709228500004</v>
       </c>
       <c r="E81" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.14607169840008</v>
       </c>
       <c r="F81" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6.1020586599966009E-2</v>
       </c>
       <c r="G81" s="55">
         <v>996.35026734300004</v>
       </c>
       <c r="H81" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.14317505799999708</v>
       </c>
       <c r="I81" s="1">
         <v>6.0803027089999997</v>
       </c>
       <c r="J81" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>3.0401513544999998</v>
       </c>
       <c r="K81" s="56">
         <v>997.50421954000001</v>
       </c>
       <c r="L81" s="56">
-        <f t="shared" si="10"/>
-        <v>1.297127254999964</v>
+        <f t="shared" si="13"/>
+        <v>1.1539521969999669</v>
       </c>
       <c r="M81" s="1">
         <v>11.347338758159999</v>
       </c>
       <c r="N81" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.6736693790799997</v>
       </c>
     </row>
@@ -16244,46 +16256,46 @@
         <v>158</v>
       </c>
       <c r="C82" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>24</v>
       </c>
       <c r="D82" s="56">
         <v>996.16375732400002</v>
       </c>
       <c r="E82" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.10074476600005</v>
       </c>
       <c r="F82" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>6.3012557999968521E-2</v>
       </c>
       <c r="G82" s="55">
         <v>996.29943547000005</v>
       </c>
       <c r="H82" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.13567814600003203</v>
       </c>
       <c r="I82" s="1">
         <v>3.8692836000000002</v>
       </c>
       <c r="J82" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.9346418000000001</v>
       </c>
       <c r="K82" s="56">
         <v>997.36936191300003</v>
       </c>
       <c r="L82" s="56">
-        <f t="shared" si="10"/>
-        <v>1.2056045890000178</v>
+        <f t="shared" si="13"/>
+        <v>1.0699264429999857</v>
       </c>
       <c r="M82" s="1">
         <v>11.399368148640001</v>
       </c>
       <c r="N82" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.6996840743200003</v>
       </c>
     </row>
@@ -16295,46 +16307,46 @@
         <v>160</v>
       </c>
       <c r="C83" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>22</v>
       </c>
       <c r="D83" s="56">
         <v>996.11517333999996</v>
       </c>
       <c r="E83" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.05541783360002</v>
       </c>
       <c r="F83" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>5.9755506399937985E-2</v>
       </c>
       <c r="G83" s="55">
         <v>996.21756811900002</v>
       </c>
       <c r="H83" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.10239477900006477</v>
       </c>
       <c r="I83" s="1">
         <v>4.4220385220000002</v>
       </c>
       <c r="J83" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.2110192610000001</v>
       </c>
       <c r="K83" s="56">
         <v>997.18338527499998</v>
       </c>
       <c r="L83" s="56">
-        <f t="shared" si="10"/>
-        <v>1.0682119350000221</v>
+        <f t="shared" si="13"/>
+        <v>0.96581715599995732</v>
       </c>
       <c r="M83" s="1">
         <v>10.956005672400002</v>
       </c>
       <c r="N83" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.4780028362000008</v>
       </c>
     </row>
@@ -16346,46 +16358,46 @@
         <v>162</v>
       </c>
       <c r="C84" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>20</v>
       </c>
       <c r="D84" s="56">
         <v>996.09527587900004</v>
       </c>
       <c r="E84" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>996.0100909012001</v>
       </c>
       <c r="F84" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>8.5184977799940498E-2</v>
       </c>
       <c r="G84" s="55">
         <v>996.16175925000005</v>
       </c>
       <c r="H84" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.6483371000003899E-2</v>
       </c>
       <c r="I84" s="1">
         <v>4.9747934440000003</v>
       </c>
       <c r="J84" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.4873967220000002</v>
       </c>
       <c r="K84" s="56">
         <v>997.126988837</v>
       </c>
       <c r="L84" s="56">
-        <f t="shared" si="10"/>
-        <v>1.0317129579999573</v>
+        <f t="shared" si="13"/>
+        <v>0.96522958699995343</v>
       </c>
       <c r="M84" s="1">
         <v>11.42579327232</v>
       </c>
       <c r="N84" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.71289663616</v>
       </c>
     </row>
@@ -16397,46 +16409,46 @@
         <v>164</v>
       </c>
       <c r="C85" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="D85" s="56">
         <v>996.05194091800001</v>
       </c>
       <c r="E85" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.96476396880007</v>
       </c>
       <c r="F85" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>8.717694919994301E-2</v>
       </c>
       <c r="G85" s="55">
         <v>996.160549844</v>
       </c>
       <c r="H85" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.10860892599998806</v>
       </c>
       <c r="I85" s="1">
         <v>4.9747934440000003</v>
       </c>
       <c r="J85" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.4873967220000002</v>
       </c>
       <c r="K85" s="56">
         <v>997.17283707199999</v>
       </c>
       <c r="L85" s="56">
-        <f t="shared" si="10"/>
-        <v>1.1208961539999791</v>
+        <f t="shared" si="13"/>
+        <v>1.012287227999991</v>
       </c>
       <c r="M85" s="1">
         <v>10.88172533328</v>
       </c>
       <c r="N85" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.4408626666400002</v>
       </c>
     </row>
@@ -16448,46 +16460,46 @@
         <v>166</v>
       </c>
       <c r="C86" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>16</v>
       </c>
       <c r="D86" s="56">
         <v>995.94567871100003</v>
       </c>
       <c r="E86" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.91943703640004</v>
       </c>
       <c r="F86" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>2.6241674599987164E-2</v>
       </c>
       <c r="G86" s="55">
         <v>996.06221786100002</v>
       </c>
       <c r="H86" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.11653914999999415</v>
       </c>
       <c r="I86" s="1">
         <v>4.6909633790000003</v>
       </c>
       <c r="J86" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.3454816895000001</v>
       </c>
       <c r="K86" s="56">
         <v>997.09784968400004</v>
       </c>
       <c r="L86" s="56">
-        <f t="shared" si="10"/>
-        <v>1.1521709730000111</v>
+        <f t="shared" si="13"/>
+        <v>1.035631823000017</v>
       </c>
       <c r="M86" s="1">
         <v>11.969892636239999</v>
       </c>
       <c r="N86" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.9849463181199996</v>
       </c>
     </row>
@@ -16499,46 +16511,46 @@
         <v>168</v>
       </c>
       <c r="C87" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>14</v>
       </c>
       <c r="D87" s="56">
         <v>995.94793701200001</v>
       </c>
       <c r="E87" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.87411010400001</v>
       </c>
       <c r="F87" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>7.3826908000000913E-2</v>
       </c>
       <c r="G87" s="55">
         <v>996.02122130500004</v>
       </c>
       <c r="H87" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>7.3284293000028811E-2</v>
       </c>
       <c r="I87" s="1">
         <v>4.2696687579999999</v>
       </c>
       <c r="J87" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.1348343789999999</v>
       </c>
       <c r="K87" s="56">
         <v>997.04330116200003</v>
       </c>
       <c r="L87" s="56">
-        <f t="shared" si="10"/>
-        <v>1.0953641500000231</v>
+        <f t="shared" si="13"/>
+        <v>1.0220798569999943</v>
       </c>
       <c r="M87" s="1">
         <v>12.45357939048</v>
       </c>
       <c r="N87" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6.2267896952399999</v>
       </c>
     </row>
@@ -16550,46 +16562,46 @@
         <v>170</v>
       </c>
       <c r="C88" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>12</v>
       </c>
       <c r="D88" s="56">
         <v>995.90991210899995</v>
       </c>
       <c r="E88" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.82878317160009</v>
       </c>
       <c r="F88" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>8.1128937399853385E-2</v>
       </c>
       <c r="G88" s="55">
         <v>995.95246412699998</v>
       </c>
       <c r="H88" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.2552018000037606E-2</v>
       </c>
       <c r="I88" s="1">
         <v>4.80337368</v>
       </c>
       <c r="J88" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.40168684</v>
       </c>
       <c r="K88" s="56">
         <v>996.981363493</v>
       </c>
       <c r="L88" s="56">
-        <f t="shared" si="10"/>
-        <v>1.0714513840000564</v>
+        <f t="shared" si="13"/>
+        <v>1.0288993660000187</v>
       </c>
       <c r="M88" s="1">
         <v>11.282476434239999</v>
       </c>
       <c r="N88" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.6412382171199997</v>
       </c>
     </row>
@@ -16601,46 +16613,46 @@
         <v>172</v>
       </c>
       <c r="C89" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>10</v>
       </c>
       <c r="D89" s="56">
         <v>995.69567871100003</v>
       </c>
       <c r="E89" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.78345623920006</v>
       </c>
       <c r="F89" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-8.7777528200035704E-2</v>
       </c>
       <c r="G89" s="55">
         <v>995.77907986499997</v>
       </c>
       <c r="H89" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>8.3401153999943745E-2</v>
       </c>
       <c r="I89" s="1">
         <v>4.80337368</v>
       </c>
       <c r="J89" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.40168684</v>
       </c>
       <c r="K89" s="56">
         <v>996.97083435399998</v>
       </c>
       <c r="L89" s="56">
-        <f t="shared" si="10"/>
-        <v>1.2751556429999482</v>
+        <f t="shared" si="13"/>
+        <v>1.1917544890000045</v>
       </c>
       <c r="M89" s="1">
         <v>9.7935591885599997</v>
       </c>
       <c r="N89" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.8967795942799999</v>
       </c>
     </row>
@@ -16652,46 +16664,46 @@
         <v>174</v>
       </c>
       <c r="C90" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="D90" s="56">
         <v>995.57287597699997</v>
       </c>
       <c r="E90" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.73812930680003</v>
       </c>
       <c r="F90" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-0.16525332980006624</v>
       </c>
       <c r="G90" s="55">
         <v>995.72127093999995</v>
       </c>
       <c r="H90" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.148394962999987</v>
       </c>
       <c r="I90" s="1">
         <v>4.1706698400000004</v>
       </c>
       <c r="J90" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.0853349200000002</v>
       </c>
       <c r="K90" s="56">
         <v>996.90440255500005</v>
       </c>
       <c r="L90" s="56">
-        <f t="shared" si="10"/>
-        <v>1.33152657800008</v>
+        <f t="shared" si="13"/>
+        <v>1.183131615000093</v>
       </c>
       <c r="M90" s="1">
         <v>10.337627127600001</v>
       </c>
       <c r="N90" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.1688135638000006</v>
       </c>
     </row>
@@ -16703,46 +16715,46 @@
         <v>176</v>
       </c>
       <c r="C91" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>6</v>
       </c>
       <c r="D91" s="56">
         <v>995.48333740199996</v>
       </c>
       <c r="E91" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.6928023744</v>
       </c>
       <c r="F91" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-0.20946497240004192</v>
       </c>
       <c r="G91" s="55">
         <v>995.63115517000006</v>
       </c>
       <c r="H91" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.14781776800009538</v>
       </c>
       <c r="I91" s="1">
         <v>4.4473366780000001</v>
       </c>
       <c r="J91" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.223668339</v>
       </c>
       <c r="K91" s="56">
         <v>996.70801699100002</v>
       </c>
       <c r="L91" s="56">
-        <f t="shared" si="10"/>
-        <v>1.2246795890000612</v>
+        <f t="shared" si="13"/>
+        <v>1.0768618209999659</v>
       </c>
       <c r="M91" s="1">
         <v>9.7935591885599997</v>
       </c>
       <c r="N91" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.8967795942799999</v>
       </c>
     </row>
@@ -16754,46 +16766,46 @@
         <v>178</v>
       </c>
       <c r="C92" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="D92" s="56">
         <v>995.48608398399995</v>
       </c>
       <c r="E92" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.64747544200009</v>
       </c>
       <c r="F92" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-0.16139145800013921</v>
       </c>
       <c r="G92" s="55">
         <v>995.63139977499998</v>
       </c>
       <c r="H92" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>0.14531579100003</v>
       </c>
       <c r="I92" s="1">
         <v>4.2696687579999999</v>
       </c>
       <c r="J92" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>2.1348343789999999</v>
       </c>
       <c r="K92" s="56">
         <v>996.69237975299995</v>
       </c>
       <c r="L92" s="56">
-        <f t="shared" si="10"/>
-        <v>1.2062957690000076</v>
+        <f t="shared" si="13"/>
+        <v>1.0609799779999776</v>
       </c>
       <c r="M92" s="1">
         <v>10.079523127680002</v>
       </c>
       <c r="N92" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>5.0397615638400008</v>
       </c>
     </row>
@@ -16805,46 +16817,46 @@
         <v>180</v>
       </c>
       <c r="C93" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="D93" s="56">
         <v>995.54071044900002</v>
       </c>
       <c r="E93" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.60214850960006</v>
       </c>
       <c r="F93" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-6.1438060600039535E-2</v>
       </c>
       <c r="G93" s="55">
         <v>995.60644724899998</v>
       </c>
       <c r="H93" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>6.5736799999967843E-2</v>
       </c>
       <c r="I93" s="1">
         <v>3.8727888909999999</v>
       </c>
       <c r="J93" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.9363944455</v>
       </c>
       <c r="K93" s="56">
         <v>996.55928845799997</v>
       </c>
       <c r="L93" s="56">
-        <f t="shared" si="10"/>
-        <v>1.0185780089999525</v>
+        <f t="shared" si="13"/>
+        <v>0.9528412089999847</v>
       </c>
       <c r="M93" s="1">
         <v>9.2494610133600013</v>
       </c>
       <c r="N93" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.6247305066800006</v>
       </c>
     </row>
@@ -16856,46 +16868,46 @@
         <v>182</v>
       </c>
       <c r="C94" s="5">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="D94" s="56">
         <v>995.44708251999998</v>
       </c>
       <c r="E94" s="1">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>995.55682157720003</v>
       </c>
       <c r="F94" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="11"/>
         <v>-0.10973905720004495</v>
       </c>
       <c r="G94" s="55">
         <v>995.49275027099998</v>
       </c>
       <c r="H94" s="55">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>4.5667750999996315E-2</v>
       </c>
       <c r="I94" s="1">
         <v>2.387815453</v>
       </c>
       <c r="J94" s="1">
-        <f t="shared" si="9"/>
+        <f t="shared" si="8"/>
         <v>1.1939077265</v>
       </c>
       <c r="K94" s="56">
         <v>996.40722049099998</v>
       </c>
       <c r="L94" s="56">
-        <f t="shared" si="10"/>
-        <v>0.96013797099999465</v>
+        <f t="shared" si="13"/>
+        <v>0.91447021999999833</v>
       </c>
       <c r="M94" s="1">
         <v>8.0597655923999998</v>
       </c>
       <c r="N94" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>4.0298827961999999</v>
       </c>
     </row>
@@ -17805,10 +17817,10 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="4">
+    <mergeCell ref="W38:X38"/>
     <mergeCell ref="W2:X2"/>
     <mergeCell ref="Y2:AA2"/>
     <mergeCell ref="W29:X29"/>
-    <mergeCell ref="W38:X38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>

--- a/sfe316_gcs_analysis/0_SFE_316_RiverBuilder_metrics.xlsx
+++ b/sfe316_gcs_analysis/0_SFE_316_RiverBuilder_metrics.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\usu-RiverBuilder\sfe316_gcs_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{659F6380-58DC-4DEB-BCEB-9D53EA13D0C0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68891669-EFB7-407B-824E-D1899A59F1DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1740" yWindow="630" windowWidth="24435" windowHeight="14655" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SFE_316_classmetrics" sheetId="1" r:id="rId1"/>
@@ -827,11 +827,11 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,9 +856,16 @@
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="1"/>
-  <c:style val="2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -876,14 +883,14 @@
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>spatial_series!$B$2</c:f>
+              <c:f>spatial_series!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Station (m)</c:v>
+                  <c:v>Z (m)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -895,7 +902,7 @@
           </c:spPr>
           <c:trendline>
             <c:spPr>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
                   <a:srgbClr val="0070C0"/>
                 </a:solidFill>
@@ -924,7 +931,7 @@
                       </a:defRPr>
                     </a:pPr>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0">
+                      <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent5"/>
                         </a:solidFill>
@@ -932,21 +939,21 @@
                       <a:t>y = -0.022667x + 999.681806</a:t>
                     </a:r>
                     <a:br>
-                      <a:rPr lang="en-US" baseline="0">
+                      <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent5"/>
                         </a:solidFill>
                       </a:rPr>
                     </a:br>
                     <a:r>
-                      <a:rPr lang="en-US" baseline="0">
+                      <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
                           <a:schemeClr val="accent5"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>R² = 0.950614</a:t>
                     </a:r>
-                    <a:endParaRPr lang="en-US">
+                    <a:endParaRPr lang="en-US" b="1">
                       <a:solidFill>
                         <a:schemeClr val="accent5"/>
                       </a:solidFill>
@@ -1530,13 +1537,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E5D0-4080-93D8-1C66059BC1D8}"/>
+              <c16:uniqueId val="{00000006-4FB6-40D5-A8CE-DF5D58EFA465}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="4"/>
           <c:tx>
             <c:v>WSE_base (m)</c:v>
           </c:tx>
@@ -1547,9 +1554,9 @@
           </c:spPr>
           <c:trendline>
             <c:spPr>
-              <a:ln>
+              <a:ln w="12700">
                 <a:solidFill>
-                  <a:srgbClr val="FF0000"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
             </c:spPr>
@@ -1559,25 +1566,54 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.39416122004357296"/>
-                  <c:y val="-0.1959722584345831"/>
+                  <c:x val="-0.34836612743668477"/>
+                  <c:y val="-0.16065217013436234"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr>
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = -0.0229x + 999.89</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>R² = 0.9755</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr>
-                      <a:solidFill>
-                        <a:srgbClr val="FF0000"/>
-                      </a:solidFill>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
@@ -2153,13 +2189,13 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-D07C-4244-AB15-31A9495B61F2}"/>
+              <c16:uniqueId val="{00000009-4FB6-40D5-A8CE-DF5D58EFA465}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="5"/>
           <c:tx>
             <c:v>WSE_bf (m)</c:v>
           </c:tx>
@@ -2169,6 +2205,16 @@
             </a:ln>
           </c:spPr>
           <c:trendline>
+            <c:spPr>
+              <a:ln w="12700">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="50000"/>
+                    <a:lumOff val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
@@ -2179,6 +2225,29 @@
                   <c:y val="-0.40426309294119694"/>
                 </c:manualLayout>
               </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr/>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0"/>
+                      <a:t>y = -0.0216x + 1000.7</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" b="1" baseline="0"/>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0"/>
+                      <a:t>R² = 0.9849</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" b="1"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
             </c:trendlineLbl>
           </c:trendline>
@@ -2755,7 +2824,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-D07C-4244-AB15-31A9495B61F2}"/>
+              <c16:uniqueId val="{0000000C-4FB6-40D5-A8CE-DF5D58EFA465}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2769,6 +2838,1830 @@
         </c:dLbls>
         <c:axId val="882734666"/>
         <c:axId val="928154191"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>spatial_series!$B$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>Station (m)</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050">
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>spatial_series!$B$3:$B$94</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="92"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>174</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>176</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>182</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>spatial_series!$D$3:$D$94</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="92"/>
+                      <c:pt idx="0">
+                        <c:v>999.6796875</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>999.47308349599996</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>999.51696777300003</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>999.40985107400002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>999.59631347699997</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>999.38470458999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>999.32366943399995</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>999.31988525400004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>999.30316162099996</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>999.23358154300001</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>999.25720214800003</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>999.26373291000004</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>999.20996093799999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>999.104003906</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>999.05548095699999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>998.995605469</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>998.87902831999997</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>998.85784912099996</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>998.88842773399995</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>998.74987793000003</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>998.49139404300001</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>998.32586669900002</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>998.27697753899997</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>998.66717529300001</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>998.31860351600005</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>998.50128173799999</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>998.51385498000002</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>998.65692138700001</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>998.61602783199999</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>998.60968017599998</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>998.46008300799997</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>998.52722168000003</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>998.49676513700001</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>998.37982177699996</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>998.35296630899995</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>998.24566650400004</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>998.26776123000002</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>998.39251708999996</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>998.36468505899995</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>998.30859375</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>998.27655029300001</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>998.27478027300003</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>998.11816406299999</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>998.12835693399995</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>997.93566894499997</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>997.77313232400002</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>997.77453613299997</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>997.71441650400004</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>997.65747070299994</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>997.44671630899995</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>997.09106445299994</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>996.69470214800003</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>996.87084960899995</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>996.51507568399995</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>996.45324706999997</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>996.61364746100003</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>996.47576904300001</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>996.44604492200006</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>996.552246094</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>997.04748535199997</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>996.49261474599996</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>996.57025146499996</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>996.730957031</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>996.84869384800004</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>996.854980469</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>996.918457031</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>996.91546630899995</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>996.89660644499997</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>996.88189697300004</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>996.85784912099996</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>996.87597656299999</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>996.77276611299999</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>996.707519531</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>996.49932861299999</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>996.42297363299997</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>996.38006591800001</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>996.32818603500004</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>996.20239257799994</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>996.20709228500004</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>996.16375732400002</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>996.11517333999996</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>996.09527587900004</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>996.05194091800001</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>995.94567871100003</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>995.94793701200001</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>995.90991210899995</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>995.69567871100003</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>995.57287597699997</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>995.48333740199996</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>995.48608398399995</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>995.54071044900002</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>995.44708251999998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000D-4FB6-40D5-A8CE-DF5D58EFA465}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="4"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:v>WSE_base (m)</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050">
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>spatial_series!$B$3:$B$94</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="92"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>174</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>176</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>182</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>spatial_series!$G$3:$G$94</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.0000</c:formatCode>
+                      <c:ptCount val="92"/>
+                      <c:pt idx="0">
+                        <c:v>999.84901853099996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>999.70655216099999</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>999.74011581000002</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>999.62598439500005</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>999.661891631</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>999.50723971100001</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>999.45852196600003</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>999.46886736700003</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>999.50891920699996</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>999.437511255</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>999.39089948499998</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>999.38799468100001</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>999.345348844</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>999.25295507400006</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>999.17506207999998</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>999.07489294100003</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>999.07348169900001</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>999.00029653599995</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>998.97553768600005</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>998.80885842500004</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>998.79163769700006</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>998.79170431499995</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>998.73502935800002</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>998.96281560900002</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>998.71739845000002</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>998.80027655000004</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>998.76681613799997</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>998.811982769</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>998.78522649900003</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>998.73215684800005</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>998.68861578300005</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>998.68143431700003</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>998.62977175000003</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>998.55600872399998</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>998.49284580200003</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>998.50206760699996</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>998.48495201799994</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>998.49378360499998</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>998.44360322199998</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>998.42176692299995</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>998.36809554800004</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>998.31855800699998</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>998.20020198199995</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>998.17784604500002</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>998.00156731699997</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>997.90277660699996</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>997.85193018300004</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>997.76539519200003</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>997.68376785800001</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>997.47370346399998</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>997.20739055900003</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>996.88826785000003</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>997.09526121399995</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>997.01873478899995</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>997.00522618699995</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>997.07177251799999</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>997.07299007500001</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>997.08109516800005</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>997.04836530900002</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>997.23704107599997</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>996.97599705200003</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>997.05408714400005</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>997.07245436200003</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>997.07928538099998</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>997.06460681199997</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>997.08281013099997</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>997.07011327500004</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>997.03609181700006</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>997.04323853599999</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>996.99697784700004</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>996.99680069299995</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>996.87565624800004</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>996.76803570200002</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>996.62614132399995</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>996.551508614</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>996.47187463199998</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>996.43806752499995</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>996.37424938000004</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>996.35026734300004</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>996.29943547000005</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>996.21756811900002</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>996.16175925000005</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>996.160549844</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>996.06221786100002</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>996.02122130500004</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>995.95246412699998</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>995.77907986499997</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>995.72127093999995</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>995.63115517000006</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>995.63139977499998</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>995.60644724899998</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>995.49275027099998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000E-4FB6-40D5-A8CE-DF5D58EFA465}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+            <c15:filteredScatterSeries>
+              <c15:ser>
+                <c:idx val="5"/>
+                <c:order val="2"/>
+                <c:tx>
+                  <c:v>WSE_bf (m)</c:v>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="19050">
+                    <a:noFill/>
+                  </a:ln>
+                </c:spPr>
+                <c:xVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>spatial_series!$B$3:$B$94</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="92"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>100</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>102</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>104</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>106</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>108</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>110</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>112</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>114</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>116</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>118</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>120</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>122</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>124</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>126</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>128</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>130</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>132</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>134</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>136</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>138</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>140</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>142</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>144</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>146</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>148</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>150</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>152</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>154</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>156</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>158</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>160</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>162</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>164</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>166</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>168</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>170</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>172</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>174</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>176</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>178</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>180</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>182</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:xVal>
+                <c:yVal>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>spatial_series!$K$3:$K$94</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>0.000</c:formatCode>
+                      <c:ptCount val="92"/>
+                      <c:pt idx="0">
+                        <c:v>1000.86751371</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1000.70083973</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1000.69981751</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1000.51432883</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1000.44880495</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1000.28626774</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1000.26300364</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1000.29405102</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1000.34743826</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1000.25199882</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1000.19841761</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1000.20045827</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1000.13587333</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1000.01634709</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>999.99489608600004</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>999.98372290299994</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1000.00174654</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>999.90057140299996</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>999.84218712100005</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>999.74709257899997</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>999.85673581599997</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>999.87612036600001</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>999.798826706</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>999.95718728899999</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>999.70880731099999</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>999.770760451</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>999.731625775</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>999.74476553600005</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>999.67834005099996</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>999.60189501800005</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>999.53630232199998</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>999.47453211899995</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>999.40403778100006</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>999.341829039</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>999.23805209199998</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>999.32658604799997</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>999.30657970000004</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>999.23748876299999</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>999.18451070399999</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>999.18275605999997</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>999.13830517099996</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>999.07797663199995</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>998.949485192</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>998.90012907699997</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>998.75618152899995</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>998.78434150199996</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>998.73649353099995</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>998.65142871</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>998.65008640099995</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>998.69702768000002</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>998.649900054</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>998.20609631100001</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>998.032516762</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>998.03826447300003</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>998.14661898600002</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>998.23815292500001</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>998.27178863300003</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>998.32153305500003</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>998.28129101499997</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>998.38065291600003</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>998.14427057299997</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>998.24600854000005</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>998.22936881199996</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>998.16701026999999</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>998.11372626800005</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>998.09899280699995</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>998.05115123600001</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>997.97362700799999</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>997.98224775999995</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>997.91647778100003</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>997.84783836999998</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>997.69888114699995</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>997.60250407299998</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>997.58863840200002</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>997.57360646500001</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>997.48679486499998</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>997.51899548699998</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>997.54912795799999</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>997.50421954000001</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>997.36936191300003</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>997.18338527499998</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>997.126988837</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>997.17283707199999</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>997.09784968400004</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>997.04330116200003</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>996.981363493</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>996.97083435399998</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>996.90440255500005</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>996.70801699100002</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>996.69237975299995</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>996.55928845799997</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>996.40722049099998</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:yVal>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{0000000F-4FB6-40D5-A8CE-DF5D58EFA465}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredScatterSeries>
+          </c:ext>
+        </c:extLst>
       </c:scatterChart>
       <c:valAx>
         <c:axId val="882734666"/>
@@ -2783,18 +4676,24 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
+                <a:pPr>
+                  <a:defRPr/>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Distance (m)</a:t>
+                </a:r>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45161099960544154"/>
+              <c:y val="0.77062348994455165"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2836,21 +4735,24 @@
               <a:bodyPr/>
               <a:lstStyle/>
               <a:p>
-                <a:pPr lvl="0">
-                  <a:defRPr b="0">
-                    <a:solidFill>
-                      <a:srgbClr val="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                  </a:defRPr>
+                <a:pPr>
+                  <a:defRPr/>
                 </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Elevation</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (m)</a:t>
+                </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2883,10 +4785,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="1.4029357441430936E-2"/>
-          <c:y val="0.78035876310163221"/>
-          <c:w val="0.98597064255856903"/>
-          <c:h val="0.19315117067320228"/>
+          <c:x val="5.5786686794869603E-2"/>
+          <c:y val="0.82892388451443566"/>
+          <c:w val="0.91457018853035543"/>
+          <c:h val="0.14458604926039872"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -11850,8 +13752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -11941,15 +13843,15 @@
       <c r="N2" s="64" t="s">
         <v>138</v>
       </c>
-      <c r="W2" s="68" t="s">
+      <c r="W2" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68" t="s">
+      <c r="X2" s="70"/>
+      <c r="Y2" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
+      <c r="Z2" s="70"/>
+      <c r="AA2" s="70"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -12004,7 +13906,7 @@
       <c r="W3" t="s">
         <v>144</v>
       </c>
-      <c r="Z3" s="70">
+      <c r="Z3" s="69">
         <v>180.46110719999999</v>
       </c>
       <c r="AA3" t="s">
@@ -12819,7 +14721,7 @@
       <c r="Y17" t="s">
         <v>89</v>
       </c>
-      <c r="Z17" s="69">
+      <c r="Z17" s="68">
         <f>AVERAGE(L3:L94)</f>
         <v>0.95865968003259827</v>
       </c>
@@ -13519,10 +15421,10 @@
         <f t="shared" si="6"/>
         <v>12.441691733280001</v>
       </c>
-      <c r="W29" s="68" t="s">
+      <c r="W29" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="X29" s="68"/>
+      <c r="X29" s="70"/>
     </row>
     <row r="30" spans="1:27" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
@@ -14029,10 +15931,10 @@
         <f t="shared" si="6"/>
         <v>8.9616989218800001</v>
       </c>
-      <c r="W38" s="68" t="s">
+      <c r="W38" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="X38" s="68"/>
+      <c r="X38" s="70"/>
     </row>
     <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
@@ -17929,10 +19831,10 @@
       <c r="P2" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="Y2" s="68" t="s">
+      <c r="Y2" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="Z2" s="68"/>
+      <c r="Z2" s="70"/>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
@@ -18299,15 +20201,15 @@
         <f t="shared" si="8"/>
         <v>8.8201499999999999</v>
       </c>
-      <c r="Y8" s="68" t="s">
+      <c r="Y8" s="70" t="s">
         <v>85</v>
       </c>
-      <c r="Z8" s="68"/>
-      <c r="AA8" s="68" t="s">
+      <c r="Z8" s="70"/>
+      <c r="AA8" s="70" t="s">
         <v>86</v>
       </c>
-      <c r="AB8" s="68"/>
-      <c r="AC8" s="68"/>
+      <c r="AB8" s="70"/>
+      <c r="AC8" s="70"/>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
